--- a/Data/transport_costs_emissions_raw.xlsx
+++ b/Data/transport_costs_emissions_raw.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\egbertrv\Documents\GitHub\AIM_Norwegian_Freight_Model\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E757EC-51D5-4055-A083-D4CEA2E25D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{5AE32870-AF16-462E-B631-817A89F76936}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="28800" windowHeight="23400" firstSheet="2" activeTab="8" xr2:uid="{5AE32870-AF16-462E-B631-817A89F76936}"/>
   </bookViews>
   <sheets>
     <sheet name="Costs_OLD" sheetId="1" r:id="rId1"/>
@@ -757,10 +757,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1003,7 +1003,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
@@ -1012,9 +1012,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1035,12 +1035,12 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -30034,7 +30034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B08A794-8873-43D6-A027-1749091B636F}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -35097,8 +35097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4663A21-150A-4914-BC6D-954E6813A5C4}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/transport_costs_emissions_raw.xlsx
+++ b/Data/transport_costs_emissions_raw.xlsx
@@ -8,26 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E757EC-51D5-4055-A083-D4CEA2E25D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{F2E757EC-51D5-4055-A083-D4CEA2E25D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D63163B-1410-4368-9739-9E7E269DD291}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="28800" windowHeight="23400" firstSheet="2" activeTab="8" xr2:uid="{5AE32870-AF16-462E-B631-817A89F76936}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="28800" windowHeight="23400" xr2:uid="{5AE32870-AF16-462E-B631-817A89F76936}"/>
   </bookViews>
   <sheets>
-    <sheet name="Costs_OLD" sheetId="1" r:id="rId1"/>
-    <sheet name="base_emissions" sheetId="23" r:id="rId2"/>
-    <sheet name="rel_emission_factors" sheetId="24" r:id="rId3"/>
-    <sheet name="transfer_costs" sheetId="9" r:id="rId4"/>
-    <sheet name="raw_data" sheetId="10" r:id="rId5"/>
-    <sheet name="base_costs_intermediate" sheetId="11" r:id="rId6"/>
-    <sheet name="base_costs" sheetId="17" r:id="rId7"/>
-    <sheet name="EUR_TO_NOK" sheetId="20" r:id="rId8"/>
-    <sheet name="prod_to_vehicle" sheetId="19" r:id="rId9"/>
-    <sheet name="vehicle_cap" sheetId="15" r:id="rId10"/>
-    <sheet name="cost_factors" sheetId="16" r:id="rId11"/>
-    <sheet name="CO2_fee" sheetId="25" r:id="rId12"/>
-    <sheet name="assumptions" sheetId="12" r:id="rId13"/>
-    <sheet name="Sources costs" sheetId="21" r:id="rId14"/>
-    <sheet name="Sources emissions" sheetId="22" r:id="rId15"/>
+    <sheet name="LEGEND" sheetId="27" r:id="rId1"/>
+    <sheet name="Costs_OLD" sheetId="1" r:id="rId2"/>
+    <sheet name="base_emissions" sheetId="23" r:id="rId3"/>
+    <sheet name="rel_emission_factors" sheetId="24" r:id="rId4"/>
+    <sheet name="transfer_costs" sheetId="9" r:id="rId5"/>
+    <sheet name="raw_data" sheetId="10" r:id="rId6"/>
+    <sheet name="base_costs_intermediate" sheetId="11" r:id="rId7"/>
+    <sheet name="base_costs" sheetId="17" r:id="rId8"/>
+    <sheet name="EUR_TO_NOK" sheetId="20" r:id="rId9"/>
+    <sheet name="prod_to_vehicle" sheetId="19" r:id="rId10"/>
+    <sheet name="lifetimes" sheetId="26" r:id="rId11"/>
+    <sheet name="vehicle_cap" sheetId="15" r:id="rId12"/>
+    <sheet name="cost_factors" sheetId="16" r:id="rId13"/>
+    <sheet name="CO2_fee" sheetId="25" r:id="rId14"/>
+    <sheet name="assumptions" sheetId="12" r:id="rId15"/>
+    <sheet name="Sources costs" sheetId="21" r:id="rId16"/>
+    <sheet name="Sources emissions" sheetId="22" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3324" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3380" uniqueCount="240">
   <si>
     <t>Mode</t>
   </si>
@@ -751,6 +753,60 @@
   <si>
     <t>Biodiesel timber trains: in original excel file, they used a relative cost factor w.r.t. diesel of 0.3 instead of 0.2 (only for timber). I used 0.2 for all product groups</t>
   </si>
+  <si>
+    <t>Lifetime</t>
+  </si>
+  <si>
+    <t>base_emissions</t>
+  </si>
+  <si>
+    <t>Sheet</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>rel_emissions_factors</t>
+  </si>
+  <si>
+    <t>transfer_costs</t>
+  </si>
+  <si>
+    <t>raw_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base_costs  </t>
+  </si>
+  <si>
+    <t>base_costs_intermediate</t>
+  </si>
+  <si>
+    <t>EUR_TO_NOK</t>
+  </si>
+  <si>
+    <t>prod_to_vehicle</t>
+  </si>
+  <si>
+    <t>lifetimes</t>
+  </si>
+  <si>
+    <t>vehicle_cap</t>
+  </si>
+  <si>
+    <t>cost_factors</t>
+  </si>
+  <si>
+    <t>CO2_fee</t>
+  </si>
+  <si>
+    <t>assumptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'sources emissions'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'sources costs'</t>
+  </si>
 </sst>
 </file>
 
@@ -1006,7 +1062,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1044,6 +1100,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1362,6 +1419,1969 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55ED1A2-26F7-4BE8-B03B-AC0D518020AD}">
+  <dimension ref="B1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="37" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" location="base_emissions!A1" display="base_emissions" xr:uid="{47E66D54-AD55-441F-A720-671D02BE1428}"/>
+    <hyperlink ref="B3" location="rel_emission_factors!A1" display="rel_emissions_factors" xr:uid="{C4F3C6FE-71EE-4A2F-B080-47BAD5A54787}"/>
+    <hyperlink ref="B4" location="transfer_costs!A1" display="transfer_costs" xr:uid="{18B54721-1CA7-4A52-9407-C984DCE86D06}"/>
+    <hyperlink ref="B5" location="raw_data!A1" display="raw_data" xr:uid="{8CB353DF-A464-458F-890B-D26BCFB29666}"/>
+    <hyperlink ref="B6" location="base_costs_intermediate!A1" display="base_costs_intermediate" xr:uid="{DAE79DE1-E819-4229-A7BA-027D53BCD791}"/>
+    <hyperlink ref="B7" location="base_costs!A1" display="base_costs  " xr:uid="{67E9AD3D-7015-4EC5-9FB4-9E780BC525AE}"/>
+    <hyperlink ref="B8" location="EUR_TO_NOK!A1" display="EUR_TO_NOK" xr:uid="{1D4A29C0-5D69-42EE-986C-B50C1111AFC3}"/>
+    <hyperlink ref="B9" location="prod_to_vehicle!A1" display="prod_to_veh" xr:uid="{6A9754FF-6739-4060-AAF8-E90160D55C9C}"/>
+    <hyperlink ref="B10" location="lifetimes!A1" display="lifetimes" xr:uid="{83FEC15E-890B-4FEA-94A1-29FCD7275831}"/>
+    <hyperlink ref="B11" location="vehicle_cap!A1" display="vehicle_cap" xr:uid="{AA225BC6-6A24-465A-AC1D-F554FA3414EE}"/>
+    <hyperlink ref="B12" location="cost_factors!A1" display="cost_factors" xr:uid="{204D38F5-F7F8-42D9-9983-7B4DF8472CD3}"/>
+    <hyperlink ref="B13" location="CO2_fee!A1" display="CO2_fee" xr:uid="{F9B55AFB-090A-44E4-9AE4-16413FF7D6D1}"/>
+    <hyperlink ref="B14" location="assumptions!A1" display="assumptions" xr:uid="{B6E585B8-9E98-4662-897D-CD0E8A1C362D}"/>
+    <hyperlink ref="B15" location="'Sources costs'!A1" display=" 'sources costs'" xr:uid="{F51D5ECD-C5D0-40EA-9688-2EC4076EA13A}"/>
+    <hyperlink ref="B16" location="'Sources emissions'!A1" display=" 'sources emissions'" xr:uid="{F588768E-EB75-412F-8F3C-75163592EA54}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4663A21-150A-4914-BC6D-954E6813A5C4}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9569D7EE-B770-468F-B61A-E0DB82253C9A}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61F1785-A9D2-43D6-AF64-887423AF0701}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87DB01C-C28B-4466-B068-FD0A64E87CCA}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D2" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2025</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2030</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2040</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2050</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>1.3</v>
+      </c>
+      <c r="E5">
+        <v>1.03</v>
+      </c>
+      <c r="F5">
+        <v>0.91</v>
+      </c>
+      <c r="G5">
+        <v>0.85</v>
+      </c>
+      <c r="H5">
+        <v>0.83</v>
+      </c>
+      <c r="J5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>1.06</v>
+      </c>
+      <c r="E7">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F7">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H7">
+        <v>1.17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G8">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>1.07</v>
+      </c>
+      <c r="E11">
+        <v>1.07</v>
+      </c>
+      <c r="F11">
+        <v>1.07</v>
+      </c>
+      <c r="G11">
+        <v>1.07</v>
+      </c>
+      <c r="H11">
+        <v>1.07</v>
+      </c>
+      <c r="J11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>1.2</v>
+      </c>
+      <c r="E14">
+        <v>1.22</v>
+      </c>
+      <c r="F14">
+        <v>1.24</v>
+      </c>
+      <c r="G14">
+        <v>1.26</v>
+      </c>
+      <c r="H14">
+        <v>1.28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>1.05</v>
+      </c>
+      <c r="E15">
+        <v>1.05</v>
+      </c>
+      <c r="F15">
+        <v>1.05</v>
+      </c>
+      <c r="G15">
+        <v>1.05</v>
+      </c>
+      <c r="H15">
+        <v>1.05</v>
+      </c>
+      <c r="I15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16">
+        <v>1.2</v>
+      </c>
+      <c r="E16">
+        <v>1.2</v>
+      </c>
+      <c r="F16">
+        <v>1.2</v>
+      </c>
+      <c r="G16">
+        <v>1.2</v>
+      </c>
+      <c r="H16">
+        <v>1.2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>1.2</v>
+      </c>
+      <c r="E19">
+        <v>1.18</v>
+      </c>
+      <c r="F19">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G19">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>1.8</v>
+      </c>
+      <c r="F20">
+        <v>1.6</v>
+      </c>
+      <c r="G20">
+        <v>1.4</v>
+      </c>
+      <c r="H20">
+        <v>1.25</v>
+      </c>
+      <c r="J20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>1.05</v>
+      </c>
+      <c r="E21">
+        <v>1.06</v>
+      </c>
+      <c r="F21">
+        <v>1.07</v>
+      </c>
+      <c r="G21">
+        <v>1.08</v>
+      </c>
+      <c r="H21">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="J21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A26ADBE-5182-4739-A39F-809BE890F4A3}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2020</v>
+      </c>
+      <c r="B2" s="8">
+        <v>5.44E-4</v>
+      </c>
+      <c r="C2" s="8">
+        <v>5.44E-4</v>
+      </c>
+      <c r="D2" s="8">
+        <v>5.44E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2025</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1.2720000000000001E-3</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1.7719999999999999E-3</v>
+      </c>
+      <c r="D3" s="8">
+        <v>5.44E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2030</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D4" s="8">
+        <v>5.44E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2040</v>
+      </c>
+      <c r="B5" s="8">
+        <v>3.4559999999999999E-3</v>
+      </c>
+      <c r="C5" s="8">
+        <v>5.4559999999999999E-3</v>
+      </c>
+      <c r="D5" s="8">
+        <v>5.44E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2050</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4.9120000000000006E-3</v>
+      </c>
+      <c r="C6" s="8">
+        <v>7.9119999999999989E-3</v>
+      </c>
+      <c r="D6" s="8">
+        <v>5.44E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BE84BF-E76A-402B-AF31-6F26AF2044C4}">
+  <dimension ref="A1:A22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="144.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96CB461-6F71-44E3-A168-71729D7C3877}">
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="116.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A21" r:id="rId1" xr:uid="{6BB6211E-19A0-4F02-BC7A-3A56508CA64B}"/>
+    <hyperlink ref="A19" r:id="rId2" xr:uid="{E125BC90-7F30-4B94-A86A-3EFCF7E2E423}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD9D518-1F19-4A80-A28B-711CA74E3278}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="116.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A14" r:id="rId1" xr:uid="{C4319978-B66A-4039-B91C-E1EE64F3642A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA46F70C-1634-4B80-BD59-B77731E4E671}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R631"/>
@@ -28095,1366 +30115,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61F1785-A9D2-43D6-AF64-887423AF0701}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87DB01C-C28B-4466-B068-FD0A64E87CCA}">
-  <dimension ref="A1:J21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2020</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2025</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2030</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2040</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2050</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>1.3</v>
-      </c>
-      <c r="E5">
-        <v>1.03</v>
-      </c>
-      <c r="F5">
-        <v>0.91</v>
-      </c>
-      <c r="G5">
-        <v>0.85</v>
-      </c>
-      <c r="H5">
-        <v>0.83</v>
-      </c>
-      <c r="J5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>1.06</v>
-      </c>
-      <c r="E7">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="F7">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="G7">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H7">
-        <v>1.17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>141</v>
-      </c>
-      <c r="J7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="E8">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="F8">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="G8">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="H8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I8" t="s">
-        <v>141</v>
-      </c>
-      <c r="J8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11">
-        <v>1.07</v>
-      </c>
-      <c r="E11">
-        <v>1.07</v>
-      </c>
-      <c r="F11">
-        <v>1.07</v>
-      </c>
-      <c r="G11">
-        <v>1.07</v>
-      </c>
-      <c r="H11">
-        <v>1.07</v>
-      </c>
-      <c r="J11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14">
-        <v>1.2</v>
-      </c>
-      <c r="E14">
-        <v>1.22</v>
-      </c>
-      <c r="F14">
-        <v>1.24</v>
-      </c>
-      <c r="G14">
-        <v>1.26</v>
-      </c>
-      <c r="H14">
-        <v>1.28</v>
-      </c>
-      <c r="I14" t="s">
-        <v>141</v>
-      </c>
-      <c r="J14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15">
-        <v>1.05</v>
-      </c>
-      <c r="E15">
-        <v>1.05</v>
-      </c>
-      <c r="F15">
-        <v>1.05</v>
-      </c>
-      <c r="G15">
-        <v>1.05</v>
-      </c>
-      <c r="H15">
-        <v>1.05</v>
-      </c>
-      <c r="I15" t="s">
-        <v>141</v>
-      </c>
-      <c r="J15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16">
-        <v>1.2</v>
-      </c>
-      <c r="E16">
-        <v>1.2</v>
-      </c>
-      <c r="F16">
-        <v>1.2</v>
-      </c>
-      <c r="G16">
-        <v>1.2</v>
-      </c>
-      <c r="H16">
-        <v>1.2</v>
-      </c>
-      <c r="J16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E18">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F18">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G18">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H18">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J18" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>1.2</v>
-      </c>
-      <c r="E19">
-        <v>1.18</v>
-      </c>
-      <c r="F19">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="G19">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="H19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>1.8</v>
-      </c>
-      <c r="F20">
-        <v>1.6</v>
-      </c>
-      <c r="G20">
-        <v>1.4</v>
-      </c>
-      <c r="H20">
-        <v>1.25</v>
-      </c>
-      <c r="J20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21">
-        <v>1.05</v>
-      </c>
-      <c r="E21">
-        <v>1.06</v>
-      </c>
-      <c r="F21">
-        <v>1.07</v>
-      </c>
-      <c r="G21">
-        <v>1.08</v>
-      </c>
-      <c r="H21">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="J21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D2:H2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A26ADBE-5182-4739-A39F-809BE890F4A3}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2020</v>
-      </c>
-      <c r="B2" s="8">
-        <v>5.44E-4</v>
-      </c>
-      <c r="C2" s="8">
-        <v>5.44E-4</v>
-      </c>
-      <c r="D2" s="8">
-        <v>5.44E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2025</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1.2720000000000001E-3</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1.7719999999999999E-3</v>
-      </c>
-      <c r="D3" s="8">
-        <v>5.44E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2030</v>
-      </c>
-      <c r="B4" s="8">
-        <v>2E-3</v>
-      </c>
-      <c r="C4" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D4" s="8">
-        <v>5.44E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2040</v>
-      </c>
-      <c r="B5" s="8">
-        <v>3.4559999999999999E-3</v>
-      </c>
-      <c r="C5" s="8">
-        <v>5.4559999999999999E-3</v>
-      </c>
-      <c r="D5" s="8">
-        <v>5.44E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2050</v>
-      </c>
-      <c r="B6" s="8">
-        <v>4.9120000000000006E-3</v>
-      </c>
-      <c r="C6" s="8">
-        <v>7.9119999999999989E-3</v>
-      </c>
-      <c r="D6" s="8">
-        <v>5.44E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BE84BF-E76A-402B-AF31-6F26AF2044C4}">
-  <dimension ref="A1:A22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="144.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>221</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96CB461-6F71-44E3-A168-71729D7C3877}">
-  <dimension ref="A1:C49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="116.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>182</v>
-      </c>
-      <c r="B14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>183</v>
-      </c>
-      <c r="B21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>181</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" xr:uid="{6BB6211E-19A0-4F02-BC7A-3A56508CA64B}"/>
-    <hyperlink ref="A19" r:id="rId2" xr:uid="{E125BC90-7F30-4B94-A86A-3EFCF7E2E423}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD9D518-1F19-4A80-A28B-711CA74E3278}">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="116.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1" xr:uid="{C4319978-B66A-4039-B91C-E1EE64F3642A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EE6192-3357-4DF0-8055-1C716AB42B8C}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -29715,12 +30380,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D42CA7-36D4-4300-B367-C77E8D5E25CA}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B21" sqref="A3:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30030,7 +30695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B08A794-8873-43D6-A027-1749091B636F}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -30293,7 +30958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA07C27-4DA3-4DC0-BE20-62D49702D364}">
   <dimension ref="A1:Z58"/>
   <sheetViews>
@@ -33485,7 +34150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CDBB70-C564-430C-8368-0301BECC4495}">
   <dimension ref="A1:O25"/>
   <sheetViews>
@@ -34156,7 +34821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DA41B5-4555-4ECC-9A08-B1A926FD14EC}">
   <dimension ref="A1:AB31"/>
   <sheetViews>
@@ -35057,7 +35722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C003461F-E7F2-4532-B47B-B811710E9E75}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -35091,266 +35756,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4663A21-150A-4914-BC6D-954E6813A5C4}">
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Data/transport_costs_emissions_raw.xlsx
+++ b/Data/transport_costs_emissions_raw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\egbertrv\Documents\GitHub\AIM_Norwegian_Freight_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{F2E757EC-51D5-4055-A083-D4CEA2E25D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D63163B-1410-4368-9739-9E7E269DD291}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A879C1-6ABF-40F6-B4BB-8D66AD9CC73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="28800" windowHeight="23400" xr2:uid="{5AE32870-AF16-462E-B631-817A89F76936}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{5AE32870-AF16-462E-B631-817A89F76936}"/>
   </bookViews>
   <sheets>
     <sheet name="LEGEND" sheetId="27" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3380" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3383" uniqueCount="243">
   <si>
     <t>Mode</t>
   </si>
@@ -807,16 +807,25 @@
   <si>
     <t xml:space="preserve"> 'sources costs'</t>
   </si>
+  <si>
+    <t>NOTE: HERE THE DATES  2020 AND 2025 ARE USED</t>
+  </si>
+  <si>
+    <t>NOTE: HERE WE USE DATES 2022 AND 2026 (DIFFERENT FROM raw_data!)</t>
+  </si>
+  <si>
+    <t>Raw data based on 2020, 2025; changed manually to 2022 and 2026</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1059,7 +1068,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="39">
@@ -1068,9 +1077,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1091,12 +1100,12 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -1422,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55ED1A2-26F7-4BE8-B03B-AC0D518020AD}">
   <dimension ref="B1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2206,7 +2215,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J21"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2241,10 +2250,10 @@
         <v>137</v>
       </c>
       <c r="D3" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E3" s="1">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F3" s="1">
         <v>2030</v>
@@ -2810,7 +2819,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2836,7 +2845,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B2" s="8">
         <v>5.44E-4</v>
@@ -2850,7 +2859,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B3" s="8">
         <v>1.2720000000000001E-3</v>
@@ -2912,10 +2921,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BE84BF-E76A-402B-AF31-6F26AF2044C4}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3001,6 +3010,11 @@
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3386,8 +3400,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R631"/>
   <sheetViews>
-    <sheetView topLeftCell="A487" zoomScale="81" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I506" sqref="I506:K506"/>
+    <sheetView zoomScale="81" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3465,7 +3479,7 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F2">
         <f>1.259/18.4</f>
@@ -3518,7 +3532,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G3" s="2">
         <f>G2*1.3</f>
@@ -3557,7 +3571,7 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F4">
         <f>2.0503/18.4</f>
@@ -3606,7 +3620,7 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G5" s="2">
         <f>G2*1.06</f>
@@ -3656,7 +3670,7 @@
         <v>13</v>
       </c>
       <c r="E6">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G6" s="2">
         <f>G2*1.12</f>
@@ -3706,7 +3720,7 @@
         <v>9</v>
       </c>
       <c r="E7">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F7">
         <f>1.259/33</f>
@@ -3760,7 +3774,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G8" s="2">
         <f>G7*1.3</f>
@@ -3809,7 +3823,7 @@
         <v>11</v>
       </c>
       <c r="E9">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F9">
         <f>2.0503/33</f>
@@ -3852,7 +3866,7 @@
         <v>12</v>
       </c>
       <c r="E10">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G10" s="2">
         <f>G7*1.06</f>
@@ -3895,7 +3909,7 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G11" s="2">
         <f>G7*1.12</f>
@@ -3945,7 +3959,7 @@
         <v>9</v>
       </c>
       <c r="E12">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F12">
         <f>1.259/33</f>
@@ -3999,7 +4013,7 @@
         <v>10</v>
       </c>
       <c r="E13">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G13" s="2">
         <f>G12*1.3</f>
@@ -4048,7 +4062,7 @@
         <v>11</v>
       </c>
       <c r="E14">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F14">
         <f>2.0503/33</f>
@@ -4101,7 +4115,7 @@
         <v>12</v>
       </c>
       <c r="E15">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G15" s="2">
         <f>G12*1.06</f>
@@ -4141,7 +4155,7 @@
         <v>13</v>
       </c>
       <c r="E16">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G16" s="2">
         <f>G12*1.12</f>
@@ -4181,7 +4195,7 @@
         <v>9</v>
       </c>
       <c r="E17">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F17">
         <f>1.259/33</f>
@@ -4225,7 +4239,7 @@
         <v>10</v>
       </c>
       <c r="E18">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G18" s="2">
         <f>G17*1.3</f>
@@ -4264,7 +4278,7 @@
         <v>11</v>
       </c>
       <c r="E19">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F19">
         <f>2.0503/33</f>
@@ -4307,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="E20">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G20" s="2">
         <f>G17*1.06</f>
@@ -4347,7 +4361,7 @@
         <v>13</v>
       </c>
       <c r="E21">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G21" s="2">
         <f>G17*1.12</f>
@@ -4387,7 +4401,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F22">
         <f>1.259/33</f>
@@ -4431,7 +4445,7 @@
         <v>10</v>
       </c>
       <c r="E23">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G23" s="2">
         <f>G22*1.3</f>
@@ -4470,7 +4484,7 @@
         <v>11</v>
       </c>
       <c r="E24">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F24">
         <f>2.0503/33</f>
@@ -4513,7 +4527,7 @@
         <v>12</v>
       </c>
       <c r="E25">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G25" s="2">
         <f>G22*1.06</f>
@@ -4553,7 +4567,7 @@
         <v>13</v>
       </c>
       <c r="E26">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G26" s="2">
         <f>G22*1.12</f>
@@ -4593,7 +4607,7 @@
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F27">
         <f>1.259/34</f>
@@ -4640,7 +4654,7 @@
         <v>10</v>
       </c>
       <c r="E28">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G28" s="2">
         <f>G27*1.3</f>
@@ -4679,7 +4693,7 @@
         <v>11</v>
       </c>
       <c r="E29">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F29">
         <f>2.0503/34</f>
@@ -4722,7 +4736,7 @@
         <v>12</v>
       </c>
       <c r="E30">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G30" s="2">
         <f>G27*1.06</f>
@@ -4762,7 +4776,7 @@
         <v>13</v>
       </c>
       <c r="E31">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G31" s="2">
         <f>G27*1.12</f>
@@ -4802,7 +4816,7 @@
         <v>9</v>
       </c>
       <c r="E32">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F32">
         <f>1.259/33</f>
@@ -4846,7 +4860,7 @@
         <v>10</v>
       </c>
       <c r="E33">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G33" s="2">
         <f>G32*1.3</f>
@@ -4885,7 +4899,7 @@
         <v>11</v>
       </c>
       <c r="E34">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F34">
         <f>2.0503/33</f>
@@ -4928,7 +4942,7 @@
         <v>12</v>
       </c>
       <c r="E35">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G35" s="2">
         <f>G32*1.06</f>
@@ -4968,7 +4982,7 @@
         <v>13</v>
       </c>
       <c r="E36">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G36" s="2">
         <f>G32*1.12</f>
@@ -5008,7 +5022,7 @@
         <v>44</v>
       </c>
       <c r="E37">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F37">
         <f>70.026/9000</f>
@@ -5054,7 +5068,7 @@
         <v>25</v>
       </c>
       <c r="E38">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G38" s="3">
         <f>G37*1.1</f>
@@ -5094,7 +5108,7 @@
         <v>26</v>
       </c>
       <c r="E39">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G39" s="3">
         <f>G38*1.07</f>
@@ -5134,7 +5148,7 @@
         <v>11</v>
       </c>
       <c r="E40">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G40" s="3">
         <v>9999</v>
@@ -5172,7 +5186,7 @@
         <v>27</v>
       </c>
       <c r="E41">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G41" s="3">
         <v>9999</v>
@@ -5210,7 +5224,7 @@
         <v>28</v>
       </c>
       <c r="E42">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G42" s="3">
         <f>G38*1.2</f>
@@ -5250,7 +5264,7 @@
         <v>13</v>
       </c>
       <c r="E43">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G43" s="3">
         <f>G42*1.05</f>
@@ -5290,7 +5304,7 @@
         <v>44</v>
       </c>
       <c r="E44">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F44">
         <f>70.026/8500</f>
@@ -5334,7 +5348,7 @@
         <v>25</v>
       </c>
       <c r="E45">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G45" s="3">
         <f>G44*1.1</f>
@@ -5374,7 +5388,7 @@
         <v>26</v>
       </c>
       <c r="E46">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G46" s="3">
         <f>G45*1.07</f>
@@ -5414,7 +5428,7 @@
         <v>11</v>
       </c>
       <c r="E47">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G47" s="3">
         <v>9999</v>
@@ -5452,7 +5466,7 @@
         <v>27</v>
       </c>
       <c r="E48">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G48" s="3">
         <v>9999</v>
@@ -5490,7 +5504,7 @@
         <v>28</v>
       </c>
       <c r="E49">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G49" s="3">
         <f>1.2*G45</f>
@@ -5530,7 +5544,7 @@
         <v>13</v>
       </c>
       <c r="E50">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G50" s="3">
         <f>G49*1.05</f>
@@ -5570,7 +5584,7 @@
         <v>44</v>
       </c>
       <c r="E51">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F51">
         <f>70.026/8500</f>
@@ -5614,7 +5628,7 @@
         <v>25</v>
       </c>
       <c r="E52">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G52" s="3">
         <f>G51*1.1</f>
@@ -5654,7 +5668,7 @@
         <v>26</v>
       </c>
       <c r="E53">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G53" s="3">
         <f>G52*1.07</f>
@@ -5694,7 +5708,7 @@
         <v>11</v>
       </c>
       <c r="E54">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G54" s="3">
         <v>9999</v>
@@ -5732,7 +5746,7 @@
         <v>27</v>
       </c>
       <c r="E55">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G55" s="3">
         <v>9999</v>
@@ -5770,7 +5784,7 @@
         <v>28</v>
       </c>
       <c r="E56">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G56" s="3">
         <f>1.2*G52</f>
@@ -5810,7 +5824,7 @@
         <v>13</v>
       </c>
       <c r="E57">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G57" s="3">
         <f>G56*1.05</f>
@@ -5850,7 +5864,7 @@
         <v>44</v>
       </c>
       <c r="E58">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F58">
         <f>70.026/8500</f>
@@ -5894,7 +5908,7 @@
         <v>25</v>
       </c>
       <c r="E59">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G59" s="3">
         <f>G58*1.1</f>
@@ -5934,7 +5948,7 @@
         <v>26</v>
       </c>
       <c r="E60">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G60" s="3">
         <f>G59*1.07</f>
@@ -5974,7 +5988,7 @@
         <v>11</v>
       </c>
       <c r="E61">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G61" s="3">
         <v>9999</v>
@@ -6012,7 +6026,7 @@
         <v>27</v>
       </c>
       <c r="E62">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G62" s="3">
         <v>9999</v>
@@ -6050,7 +6064,7 @@
         <v>28</v>
       </c>
       <c r="E63">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G63" s="3">
         <f>1.2*G59</f>
@@ -6090,7 +6104,7 @@
         <v>13</v>
       </c>
       <c r="E64">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G64" s="3">
         <f>G63*1.05</f>
@@ -6130,7 +6144,7 @@
         <v>44</v>
       </c>
       <c r="E65">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F65">
         <f>70.026/2500</f>
@@ -6174,7 +6188,7 @@
         <v>25</v>
       </c>
       <c r="E66">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G66" s="3">
         <f>G65*1.1</f>
@@ -6214,7 +6228,7 @@
         <v>26</v>
       </c>
       <c r="E67">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G67" s="3">
         <f>G66*1.07</f>
@@ -6254,7 +6268,7 @@
         <v>11</v>
       </c>
       <c r="E68">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G68" s="3">
         <v>9999</v>
@@ -6292,7 +6306,7 @@
         <v>27</v>
       </c>
       <c r="E69">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G69" s="3">
         <v>9999</v>
@@ -6330,7 +6344,7 @@
         <v>28</v>
       </c>
       <c r="E70">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G70" s="3">
         <f>G66*1.2</f>
@@ -6370,7 +6384,7 @@
         <v>13</v>
       </c>
       <c r="E71">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G71" s="3">
         <f>G70*1.05</f>
@@ -6410,7 +6424,7 @@
         <v>44</v>
       </c>
       <c r="E72">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F72">
         <f>70.026/2500</f>
@@ -6454,7 +6468,7 @@
         <v>25</v>
       </c>
       <c r="E73">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G73" s="3">
         <f>G72*1.1</f>
@@ -6494,7 +6508,7 @@
         <v>26</v>
       </c>
       <c r="E74">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G74" s="3">
         <f>G73*1.07</f>
@@ -6534,7 +6548,7 @@
         <v>11</v>
       </c>
       <c r="E75">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G75" s="3">
         <v>9999</v>
@@ -6572,7 +6586,7 @@
         <v>27</v>
       </c>
       <c r="E76">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G76" s="3">
         <v>9999</v>
@@ -6610,7 +6624,7 @@
         <v>28</v>
       </c>
       <c r="E77">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G77" s="3">
         <f>G73*1.2</f>
@@ -6650,7 +6664,7 @@
         <v>13</v>
       </c>
       <c r="E78">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G78" s="3">
         <f>G77*1.05</f>
@@ -6690,7 +6704,7 @@
         <v>44</v>
       </c>
       <c r="E79">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F79">
         <f>70.026/17000</f>
@@ -6737,7 +6751,7 @@
         <v>25</v>
       </c>
       <c r="E80">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G80" s="3">
         <f>G79*1.1</f>
@@ -6777,7 +6791,7 @@
         <v>26</v>
       </c>
       <c r="E81">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G81" s="3">
         <f>G80*1.07</f>
@@ -6817,7 +6831,7 @@
         <v>11</v>
       </c>
       <c r="E82">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G82" s="3">
         <v>9999</v>
@@ -6855,7 +6869,7 @@
         <v>27</v>
       </c>
       <c r="E83">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G83" s="3">
         <v>9999</v>
@@ -6893,7 +6907,7 @@
         <v>28</v>
       </c>
       <c r="E84">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G84" s="3">
         <f>G80*1.2</f>
@@ -6933,7 +6947,7 @@
         <v>13</v>
       </c>
       <c r="E85">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G85" s="3">
         <f>G84*1.05</f>
@@ -6973,7 +6987,7 @@
         <v>9</v>
       </c>
       <c r="E86">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F86">
         <f>1.2*F87</f>
@@ -7019,7 +7033,7 @@
         <v>34</v>
       </c>
       <c r="E87">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F87">
         <v>1.2E-2</v>
@@ -7061,7 +7075,7 @@
         <v>35</v>
       </c>
       <c r="E88">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F88">
         <f>1.1*F86</f>
@@ -7108,7 +7122,7 @@
         <v>36</v>
       </c>
       <c r="E89">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F89">
         <f>1.2*F86</f>
@@ -7151,7 +7165,7 @@
         <v>11</v>
       </c>
       <c r="E90">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F90">
         <f>F86*2</f>
@@ -7194,7 +7208,7 @@
         <v>12</v>
       </c>
       <c r="E91">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F91">
         <f>F86*1.05</f>
@@ -7241,7 +7255,7 @@
         <v>9</v>
       </c>
       <c r="E92">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F92">
         <f>F93*1.2</f>
@@ -7284,7 +7298,7 @@
         <v>34</v>
       </c>
       <c r="E93">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F93">
         <f>0.017</f>
@@ -7327,7 +7341,7 @@
         <v>35</v>
       </c>
       <c r="E94">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F94">
         <f>1.1*F92</f>
@@ -7371,7 +7385,7 @@
         <v>36</v>
       </c>
       <c r="E95">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F95">
         <f>F92*1.2</f>
@@ -7414,7 +7428,7 @@
         <v>11</v>
       </c>
       <c r="E96">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F96">
         <f>F92*2</f>
@@ -7457,7 +7471,7 @@
         <v>12</v>
       </c>
       <c r="E97">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F97">
         <f>F92*1.05</f>
@@ -7501,7 +7515,7 @@
         <v>9</v>
       </c>
       <c r="E98">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F98">
         <f>F99*1.2</f>
@@ -7544,7 +7558,7 @@
         <v>34</v>
       </c>
       <c r="E99">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F99">
         <f>0.017</f>
@@ -7587,7 +7601,7 @@
         <v>35</v>
       </c>
       <c r="E100">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F100">
         <f>1.1*F98</f>
@@ -7631,7 +7645,7 @@
         <v>36</v>
       </c>
       <c r="E101">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F101">
         <f>F98*1.2</f>
@@ -7674,7 +7688,7 @@
         <v>11</v>
       </c>
       <c r="E102">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F102">
         <f>F98*2</f>
@@ -7717,7 +7731,7 @@
         <v>12</v>
       </c>
       <c r="E103">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F103">
         <f>F98*1.05</f>
@@ -7761,7 +7775,7 @@
         <v>9</v>
       </c>
       <c r="E104">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F104">
         <f>F105*1.2</f>
@@ -7804,7 +7818,7 @@
         <v>34</v>
       </c>
       <c r="E105">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F105">
         <f>0.017</f>
@@ -7847,7 +7861,7 @@
         <v>35</v>
       </c>
       <c r="E106">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F106">
         <f>1.1*F104</f>
@@ -7891,7 +7905,7 @@
         <v>36</v>
       </c>
       <c r="E107">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F107">
         <f>F104*1.2</f>
@@ -7934,7 +7948,7 @@
         <v>11</v>
       </c>
       <c r="E108">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F108">
         <f>F104*2</f>
@@ -7977,7 +7991,7 @@
         <v>12</v>
       </c>
       <c r="E109">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F109">
         <f>F104*1.05</f>
@@ -8021,7 +8035,7 @@
         <v>9</v>
       </c>
       <c r="E110">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F110">
         <f>F111*1.2</f>
@@ -8064,7 +8078,7 @@
         <v>34</v>
       </c>
       <c r="E111">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F111">
         <f>0.017</f>
@@ -8107,7 +8121,7 @@
         <v>35</v>
       </c>
       <c r="E112">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F112">
         <f>1.1*F110</f>
@@ -8151,7 +8165,7 @@
         <v>36</v>
       </c>
       <c r="E113">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F113">
         <f>F110*1.2</f>
@@ -8194,7 +8208,7 @@
         <v>11</v>
       </c>
       <c r="E114">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F114">
         <f>F110*2</f>
@@ -8237,7 +8251,7 @@
         <v>12</v>
       </c>
       <c r="E115">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F115">
         <f>F110*1.05</f>
@@ -8281,7 +8295,7 @@
         <v>9</v>
       </c>
       <c r="E116">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F116">
         <f>F117*1.2</f>
@@ -8327,7 +8341,7 @@
         <v>34</v>
       </c>
       <c r="E117">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F117">
         <f>0.017</f>
@@ -8373,7 +8387,7 @@
         <v>35</v>
       </c>
       <c r="E118">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F118">
         <f>1.1*F116</f>
@@ -8420,7 +8434,7 @@
         <v>36</v>
       </c>
       <c r="E119">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F119">
         <f>F116*1.2</f>
@@ -8463,7 +8477,7 @@
         <v>11</v>
       </c>
       <c r="E120">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F120">
         <f>F116*2</f>
@@ -8506,7 +8520,7 @@
         <v>12</v>
       </c>
       <c r="E121">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F121">
         <f>F116*1.05</f>
@@ -8550,7 +8564,7 @@
         <v>9</v>
       </c>
       <c r="E122">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F122">
         <f>F123*1.2</f>
@@ -8593,7 +8607,7 @@
         <v>34</v>
       </c>
       <c r="E123">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F123">
         <v>1.4999999999999999E-2</v>
@@ -8635,7 +8649,7 @@
         <v>35</v>
       </c>
       <c r="E124">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F124">
         <f>F122*1.1</f>
@@ -8679,7 +8693,7 @@
         <v>36</v>
       </c>
       <c r="E125">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F125">
         <f>F122*1.2</f>
@@ -8722,7 +8736,7 @@
         <v>11</v>
       </c>
       <c r="E126">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F126">
         <f>F122*2</f>
@@ -8765,7 +8779,7 @@
         <v>12</v>
       </c>
       <c r="E127">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F127">
         <f>F122*1.05</f>
@@ -8809,7 +8823,7 @@
         <v>9</v>
       </c>
       <c r="E128">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F128">
         <f>1.258/18.4</f>
@@ -8856,7 +8870,7 @@
         <v>10</v>
       </c>
       <c r="E129">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G129" s="2">
         <f>G128*1.03</f>
@@ -8899,7 +8913,7 @@
         <v>11</v>
       </c>
       <c r="E130">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F130">
         <f>1.7897/18.4</f>
@@ -8943,7 +8957,7 @@
         <v>12</v>
       </c>
       <c r="E131">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G131" s="2">
         <f>G128*1.11</f>
@@ -8983,7 +8997,7 @@
         <v>13</v>
       </c>
       <c r="E132">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G132" s="2">
         <f>G128*1.13</f>
@@ -9023,7 +9037,7 @@
         <v>9</v>
       </c>
       <c r="E133">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F133">
         <f>1.258/33</f>
@@ -9067,7 +9081,7 @@
         <v>10</v>
       </c>
       <c r="E134">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G134" s="2">
         <f>G133*1.03</f>
@@ -9107,7 +9121,7 @@
         <v>11</v>
       </c>
       <c r="E135">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F135">
         <f>1.7897/33</f>
@@ -9151,7 +9165,7 @@
         <v>12</v>
       </c>
       <c r="E136">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G136" s="2">
         <f>G133*1.11</f>
@@ -9191,7 +9205,7 @@
         <v>13</v>
       </c>
       <c r="E137">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G137" s="2">
         <f>G133*1.13</f>
@@ -9231,7 +9245,7 @@
         <v>9</v>
       </c>
       <c r="E138">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F138">
         <f>1.258/33</f>
@@ -9275,7 +9289,7 @@
         <v>10</v>
       </c>
       <c r="E139">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G139" s="2">
         <f>G138*1.03</f>
@@ -9315,7 +9329,7 @@
         <v>11</v>
       </c>
       <c r="E140">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F140">
         <f>1.7897/33</f>
@@ -9359,7 +9373,7 @@
         <v>12</v>
       </c>
       <c r="E141">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G141" s="2">
         <f>G138*1.11</f>
@@ -9399,7 +9413,7 @@
         <v>13</v>
       </c>
       <c r="E142">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G142" s="2">
         <f>G138*1.13</f>
@@ -9439,7 +9453,7 @@
         <v>9</v>
       </c>
       <c r="E143">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F143">
         <f>1.258/33</f>
@@ -9483,7 +9497,7 @@
         <v>10</v>
       </c>
       <c r="E144">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G144" s="2">
         <f>G143*1.03</f>
@@ -9523,7 +9537,7 @@
         <v>11</v>
       </c>
       <c r="E145">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F145">
         <f>1.7897/33</f>
@@ -9567,7 +9581,7 @@
         <v>12</v>
       </c>
       <c r="E146">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G146" s="2">
         <f>G143*1.11</f>
@@ -9607,7 +9621,7 @@
         <v>13</v>
       </c>
       <c r="E147">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G147" s="2">
         <f>G143*1.13</f>
@@ -9647,7 +9661,7 @@
         <v>9</v>
       </c>
       <c r="E148">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F148">
         <f>1.258/33</f>
@@ -9691,7 +9705,7 @@
         <v>10</v>
       </c>
       <c r="E149">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G149" s="2">
         <f>G148*1.03</f>
@@ -9731,7 +9745,7 @@
         <v>11</v>
       </c>
       <c r="E150">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F150">
         <f>1.7897/33</f>
@@ -9775,7 +9789,7 @@
         <v>12</v>
       </c>
       <c r="E151">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G151" s="2">
         <f>G148*1.11</f>
@@ -9815,7 +9829,7 @@
         <v>13</v>
       </c>
       <c r="E152">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G152" s="2">
         <f>G148*1.13</f>
@@ -9855,7 +9869,7 @@
         <v>9</v>
       </c>
       <c r="E153">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F153">
         <f>1.258/34</f>
@@ -9899,7 +9913,7 @@
         <v>10</v>
       </c>
       <c r="E154">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G154" s="2">
         <f>G153*1.03</f>
@@ -9939,7 +9953,7 @@
         <v>11</v>
       </c>
       <c r="E155">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F155">
         <f>1.7897/34</f>
@@ -9983,7 +9997,7 @@
         <v>12</v>
       </c>
       <c r="E156">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G156" s="2">
         <f>G153*1.11</f>
@@ -10023,7 +10037,7 @@
         <v>13</v>
       </c>
       <c r="E157">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G157" s="2">
         <f>G153*1.13</f>
@@ -10063,7 +10077,7 @@
         <v>9</v>
       </c>
       <c r="E158">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F158">
         <f>1.258/33</f>
@@ -10107,7 +10121,7 @@
         <v>10</v>
       </c>
       <c r="E159">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G159" s="2">
         <f>G158*1.03</f>
@@ -10147,7 +10161,7 @@
         <v>11</v>
       </c>
       <c r="E160">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F160">
         <f>1.7897/33</f>
@@ -10191,7 +10205,7 @@
         <v>12</v>
       </c>
       <c r="E161">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G161" s="2">
         <f>G158*1.11</f>
@@ -10231,7 +10245,7 @@
         <v>13</v>
       </c>
       <c r="E162">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G162" s="2">
         <f>G158*1.13</f>
@@ -10271,7 +10285,7 @@
         <v>44</v>
       </c>
       <c r="E163">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F163">
         <f>69.951/9000</f>
@@ -10315,7 +10329,7 @@
         <v>25</v>
       </c>
       <c r="E164">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G164" s="3">
         <f>G163*1.1</f>
@@ -10355,7 +10369,7 @@
         <v>26</v>
       </c>
       <c r="E165">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G165" s="3">
         <f>G164*1.07</f>
@@ -10399,7 +10413,7 @@
         <v>11</v>
       </c>
       <c r="E166">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G166" s="3">
         <v>9999</v>
@@ -10445,7 +10459,7 @@
         <v>27</v>
       </c>
       <c r="E167">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G167" s="3">
         <v>9999</v>
@@ -10484,7 +10498,7 @@
         <v>28</v>
       </c>
       <c r="E168">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G168" s="3">
         <f>G164*1.22</f>
@@ -10524,7 +10538,7 @@
         <v>13</v>
       </c>
       <c r="E169">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G169" s="3">
         <f>G168*1.05</f>
@@ -10564,7 +10578,7 @@
         <v>44</v>
       </c>
       <c r="E170">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F170">
         <f>69.951/8500</f>
@@ -10608,7 +10622,7 @@
         <v>25</v>
       </c>
       <c r="E171">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G171" s="3">
         <f>G170*1.1</f>
@@ -10648,7 +10662,7 @@
         <v>26</v>
       </c>
       <c r="E172">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G172" s="3">
         <f>G171*1.07</f>
@@ -10688,7 +10702,7 @@
         <v>11</v>
       </c>
       <c r="E173">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G173" s="3">
         <v>9999</v>
@@ -10727,7 +10741,7 @@
         <v>27</v>
       </c>
       <c r="E174">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G174" s="3">
         <v>9999</v>
@@ -10766,7 +10780,7 @@
         <v>28</v>
       </c>
       <c r="E175">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G175" s="3">
         <f>G171*1.22</f>
@@ -10806,7 +10820,7 @@
         <v>13</v>
       </c>
       <c r="E176">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G176" s="3">
         <f>G175*1.05</f>
@@ -10846,7 +10860,7 @@
         <v>44</v>
       </c>
       <c r="E177">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F177">
         <f>69.951/8500</f>
@@ -10890,7 +10904,7 @@
         <v>25</v>
       </c>
       <c r="E178">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G178" s="3">
         <f>G177*1.1</f>
@@ -10930,7 +10944,7 @@
         <v>26</v>
       </c>
       <c r="E179">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G179" s="3">
         <f>G178*1.07</f>
@@ -10970,7 +10984,7 @@
         <v>11</v>
       </c>
       <c r="E180">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G180" s="3">
         <v>9999</v>
@@ -11009,7 +11023,7 @@
         <v>27</v>
       </c>
       <c r="E181">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G181" s="3">
         <v>9999</v>
@@ -11048,7 +11062,7 @@
         <v>28</v>
       </c>
       <c r="E182">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G182" s="3">
         <f>G178*1.22</f>
@@ -11088,7 +11102,7 @@
         <v>13</v>
       </c>
       <c r="E183">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G183" s="3">
         <f>G182*1.05</f>
@@ -11128,7 +11142,7 @@
         <v>44</v>
       </c>
       <c r="E184">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F184">
         <f>69.951/8500</f>
@@ -11172,7 +11186,7 @@
         <v>25</v>
       </c>
       <c r="E185">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G185" s="3">
         <f>G184*1.1</f>
@@ -11212,7 +11226,7 @@
         <v>26</v>
       </c>
       <c r="E186">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G186" s="3">
         <f>G185*1.07</f>
@@ -11252,7 +11266,7 @@
         <v>11</v>
       </c>
       <c r="E187">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G187" s="3">
         <v>9999</v>
@@ -11291,7 +11305,7 @@
         <v>27</v>
       </c>
       <c r="E188">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G188" s="3">
         <v>9999</v>
@@ -11330,7 +11344,7 @@
         <v>28</v>
       </c>
       <c r="E189">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G189" s="3">
         <f>G185*1.22</f>
@@ -11370,7 +11384,7 @@
         <v>13</v>
       </c>
       <c r="E190">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G190" s="3">
         <f>G189*1.05</f>
@@ -11410,7 +11424,7 @@
         <v>44</v>
       </c>
       <c r="E191">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F191">
         <f>69.951/2500</f>
@@ -11454,7 +11468,7 @@
         <v>25</v>
       </c>
       <c r="E192">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G192" s="3">
         <f>G191*1.1</f>
@@ -11494,7 +11508,7 @@
         <v>26</v>
       </c>
       <c r="E193">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G193" s="3">
         <f>G192*1.07</f>
@@ -11534,7 +11548,7 @@
         <v>11</v>
       </c>
       <c r="E194">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G194" s="3">
         <v>9999</v>
@@ -11573,7 +11587,7 @@
         <v>27</v>
       </c>
       <c r="E195">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G195" s="3">
         <v>9999</v>
@@ -11612,7 +11626,7 @@
         <v>28</v>
       </c>
       <c r="E196">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G196" s="3">
         <f>G192*1.22</f>
@@ -11652,7 +11666,7 @@
         <v>13</v>
       </c>
       <c r="E197">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G197" s="3">
         <f>G196*1.05</f>
@@ -11692,7 +11706,7 @@
         <v>44</v>
       </c>
       <c r="E198">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F198">
         <f>69.951/2500</f>
@@ -11736,7 +11750,7 @@
         <v>25</v>
       </c>
       <c r="E199">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G199" s="3">
         <f>G198*1.1</f>
@@ -11776,7 +11790,7 @@
         <v>26</v>
       </c>
       <c r="E200">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G200" s="3">
         <f>G199*1.07</f>
@@ -11816,7 +11830,7 @@
         <v>11</v>
       </c>
       <c r="E201">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G201" s="3">
         <v>9999</v>
@@ -11855,7 +11869,7 @@
         <v>27</v>
       </c>
       <c r="E202">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G202" s="3">
         <v>9999</v>
@@ -11894,7 +11908,7 @@
         <v>28</v>
       </c>
       <c r="E203">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G203" s="3">
         <f>G199*1.22</f>
@@ -11934,7 +11948,7 @@
         <v>13</v>
       </c>
       <c r="E204">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G204" s="3">
         <f>G203*1.05</f>
@@ -11974,7 +11988,7 @@
         <v>44</v>
       </c>
       <c r="E205">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F205">
         <f>69.951/17000</f>
@@ -12018,7 +12032,7 @@
         <v>25</v>
       </c>
       <c r="E206">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G206" s="3">
         <f>G205*1.1</f>
@@ -12058,7 +12072,7 @@
         <v>26</v>
       </c>
       <c r="E207">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G207" s="3">
         <f>G206*1.07</f>
@@ -12098,7 +12112,7 @@
         <v>11</v>
       </c>
       <c r="E208">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G208" s="3">
         <v>9999</v>
@@ -12137,7 +12151,7 @@
         <v>27</v>
       </c>
       <c r="E209">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G209" s="3">
         <v>9999</v>
@@ -12176,7 +12190,7 @@
         <v>28</v>
       </c>
       <c r="E210">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G210" s="3">
         <f>G206*1.22</f>
@@ -12216,7 +12230,7 @@
         <v>13</v>
       </c>
       <c r="E211">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G211" s="3">
         <f>G210*1.05</f>
@@ -12256,7 +12270,7 @@
         <v>9</v>
       </c>
       <c r="E212">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F212">
         <f>1.2*F213</f>
@@ -12300,7 +12314,7 @@
         <v>34</v>
       </c>
       <c r="E213">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F213">
         <v>1.2E-2</v>
@@ -12343,7 +12357,7 @@
         <v>35</v>
       </c>
       <c r="E214">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F214">
         <f>F212*1.1</f>
@@ -12387,7 +12401,7 @@
         <v>36</v>
       </c>
       <c r="E215">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F215">
         <f>F212*1.18</f>
@@ -12431,7 +12445,7 @@
         <v>11</v>
       </c>
       <c r="E216">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F216">
         <f>F212*1.8</f>
@@ -12475,7 +12489,7 @@
         <v>12</v>
       </c>
       <c r="E217">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F217">
         <f>F212*1.06</f>
@@ -12519,7 +12533,7 @@
         <v>9</v>
       </c>
       <c r="E218">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F218">
         <f>1.2*F219</f>
@@ -12563,7 +12577,7 @@
         <v>34</v>
       </c>
       <c r="E219">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F219">
         <v>1.7000000000000001E-2</v>
@@ -12606,7 +12620,7 @@
         <v>35</v>
       </c>
       <c r="E220">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F220">
         <f>F218*1.1</f>
@@ -12650,7 +12664,7 @@
         <v>36</v>
       </c>
       <c r="E221">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F221">
         <f>F218*1.18</f>
@@ -12694,7 +12708,7 @@
         <v>11</v>
       </c>
       <c r="E222">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F222">
         <f>F218*1.8</f>
@@ -12738,7 +12752,7 @@
         <v>12</v>
       </c>
       <c r="E223">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F223">
         <f>F218*1.06</f>
@@ -12782,7 +12796,7 @@
         <v>9</v>
       </c>
       <c r="E224">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F224">
         <f>1.2*F225</f>
@@ -12826,7 +12840,7 @@
         <v>34</v>
       </c>
       <c r="E225">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F225">
         <v>1.7000000000000001E-2</v>
@@ -12869,7 +12883,7 @@
         <v>35</v>
       </c>
       <c r="E226">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F226">
         <f>F224*1.1</f>
@@ -12913,7 +12927,7 @@
         <v>36</v>
       </c>
       <c r="E227">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F227">
         <f>F224*1.18</f>
@@ -12957,7 +12971,7 @@
         <v>11</v>
       </c>
       <c r="E228">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F228">
         <f>F224*1.8</f>
@@ -13001,7 +13015,7 @@
         <v>12</v>
       </c>
       <c r="E229">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F229">
         <f>F224*1.06</f>
@@ -13045,7 +13059,7 @@
         <v>9</v>
       </c>
       <c r="E230">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F230">
         <f>1.2*F231</f>
@@ -13089,7 +13103,7 @@
         <v>34</v>
       </c>
       <c r="E231">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F231">
         <v>1.7000000000000001E-2</v>
@@ -13132,7 +13146,7 @@
         <v>35</v>
       </c>
       <c r="E232">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F232">
         <f>F230*1.1</f>
@@ -13176,7 +13190,7 @@
         <v>36</v>
       </c>
       <c r="E233">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F233">
         <f>F230*1.18</f>
@@ -13220,7 +13234,7 @@
         <v>11</v>
       </c>
       <c r="E234">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F234">
         <f>F230*1.8</f>
@@ -13264,7 +13278,7 @@
         <v>12</v>
       </c>
       <c r="E235">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F235">
         <f>F230*1.06</f>
@@ -13308,7 +13322,7 @@
         <v>9</v>
       </c>
       <c r="E236">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F236">
         <f>1.2*F237</f>
@@ -13352,7 +13366,7 @@
         <v>34</v>
       </c>
       <c r="E237">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F237">
         <v>1.7000000000000001E-2</v>
@@ -13395,7 +13409,7 @@
         <v>35</v>
       </c>
       <c r="E238">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F238">
         <f>F236*1.1</f>
@@ -13439,7 +13453,7 @@
         <v>36</v>
       </c>
       <c r="E239">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F239">
         <f>F236*1.18</f>
@@ -13483,7 +13497,7 @@
         <v>11</v>
       </c>
       <c r="E240">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F240">
         <f>F236*1.8</f>
@@ -13527,7 +13541,7 @@
         <v>12</v>
       </c>
       <c r="E241">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F241">
         <f>F236*1.06</f>
@@ -13571,7 +13585,7 @@
         <v>9</v>
       </c>
       <c r="E242">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F242">
         <f>1.2*F243</f>
@@ -13615,7 +13629,7 @@
         <v>34</v>
       </c>
       <c r="E243">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F243">
         <v>1.7000000000000001E-2</v>
@@ -13658,7 +13672,7 @@
         <v>35</v>
       </c>
       <c r="E244">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F244">
         <f>F242*1.1</f>
@@ -13702,7 +13716,7 @@
         <v>36</v>
       </c>
       <c r="E245">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F245">
         <f>F242*1.18</f>
@@ -13746,7 +13760,7 @@
         <v>11</v>
       </c>
       <c r="E246">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F246">
         <f>F242*1.8</f>
@@ -13790,7 +13804,7 @@
         <v>12</v>
       </c>
       <c r="E247">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F247">
         <f>F242*1.06</f>
@@ -13834,7 +13848,7 @@
         <v>9</v>
       </c>
       <c r="E248">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F248">
         <f>1.2*F249</f>
@@ -13878,7 +13892,7 @@
         <v>34</v>
       </c>
       <c r="E249">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F249">
         <v>1.4999999999999999E-2</v>
@@ -13921,7 +13935,7 @@
         <v>35</v>
       </c>
       <c r="E250">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F250">
         <f>F248*1.1</f>
@@ -13965,7 +13979,7 @@
         <v>36</v>
       </c>
       <c r="E251">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F251">
         <f>F248*1.18</f>
@@ -14009,7 +14023,7 @@
         <v>11</v>
       </c>
       <c r="E252">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F252">
         <f>F248*1.8</f>
@@ -14053,7 +14067,7 @@
         <v>12</v>
       </c>
       <c r="E253">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F253">
         <f>F248*1.06</f>
@@ -30384,8 +30398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D42CA7-36D4-4300-B367-C77E8D5E25CA}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="A3:B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30960,15 +30974,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA07C27-4DA3-4DC0-BE20-62D49702D364}">
-  <dimension ref="A1:Z58"/>
+  <dimension ref="A1:AC58"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>76</v>
       </c>
@@ -30997,8 +31011,11 @@
       <c r="X1" s="21"/>
       <c r="Y1" s="21"/>
       <c r="Z1" s="21"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AC1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -31026,7 +31043,7 @@
       <c r="Y2" s="21"/>
       <c r="Z2" s="21"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -31054,7 +31071,7 @@
       <c r="Y3" s="21"/>
       <c r="Z3" s="21"/>
     </row>
-    <row r="4" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>77</v>
       </c>
@@ -31108,7 +31125,7 @@
       <c r="Y4" s="23"/>
       <c r="Z4" s="23"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -31136,7 +31153,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="21"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>9</v>
       </c>
@@ -31166,7 +31183,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="21"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>90</v>
       </c>
@@ -31238,7 +31255,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="21"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>91</v>
       </c>
@@ -31310,7 +31327,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="21"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>95</v>
       </c>
@@ -31384,7 +31401,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="21"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>97</v>
       </c>
@@ -31458,7 +31475,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="21"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -31486,7 +31503,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="21"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>99</v>
       </c>
@@ -31516,7 +31533,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="21"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>90</v>
       </c>
@@ -31588,7 +31605,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="21"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>91</v>
       </c>
@@ -31660,7 +31677,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="21"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>95</v>
       </c>
@@ -31734,7 +31751,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="21"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>97</v>
       </c>
@@ -34152,10 +34169,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CDBB70-C564-430C-8368-0301BECC4495}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15:L16"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34163,18 +34180,21 @@
     <col min="6" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
       <c r="B3" s="1" t="s">
         <v>125</v>
@@ -34197,7 +34217,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
       <c r="B4" s="1" t="s">
         <v>126</v>
@@ -34234,9 +34254,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B5" s="32">
         <v>1.2767928712592653</v>
@@ -34263,7 +34283,7 @@
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
       <c r="L5" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="M5" s="32">
         <v>1.7730814709196963E-2</v>
@@ -34275,9 +34295,9 @@
         <v>1.7730814709196963E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B6" s="32">
         <v>1.2763128712592651</v>
@@ -34304,7 +34324,7 @@
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
       <c r="L6" s="1">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="M6" s="32">
         <v>1.7730814709196963E-2</v>
@@ -34316,7 +34336,7 @@
         <v>1.7730814709196963E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2030</v>
       </c>
@@ -34357,7 +34377,7 @@
         <v>1.7730814709196963E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2035</v>
       </c>
@@ -34398,7 +34418,7 @@
         <v>1.7730814709196963E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2040</v>
       </c>
@@ -34439,7 +34459,7 @@
         <v>1.7730814709196963E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2045</v>
       </c>
@@ -34480,7 +34500,7 @@
         <v>1.7730814709196963E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2050</v>
       </c>
@@ -34521,7 +34541,7 @@
         <v>1.7730814709196963E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
@@ -34538,12 +34558,12 @@
       <c r="N12" s="32"/>
       <c r="O12" s="32"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -34586,7 +34606,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B19" s="32">
         <f>B5-M5</f>
@@ -34619,7 +34639,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B20" s="32">
         <f t="shared" ref="B20:B25" si="2">B6-M6</f>
@@ -34826,7 +34846,7 @@
   <dimension ref="A1:AB31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34848,10 +34868,10 @@
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D3" s="1">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E3" s="1">
         <v>2030</v>
@@ -34871,10 +34891,10 @@
       <c r="L3" s="31"/>
       <c r="M3" s="31"/>
       <c r="N3" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="O3" s="1">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="P3" s="1">
         <v>2030</v>
@@ -35200,10 +35220,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D15" s="1">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E15" s="1">
         <v>2030</v>

--- a/Data/transport_costs_emissions_raw.xlsx
+++ b/Data/transport_costs_emissions_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\egbertrv\Documents\GitHub\AIM_Norwegian_Freight_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A879C1-6ABF-40F6-B4BB-8D66AD9CC73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50135F56-8232-48B0-89C8-A3BAA42E8A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{5AE32870-AF16-462E-B631-817A89F76936}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{5AE32870-AF16-462E-B631-817A89F76936}"/>
   </bookViews>
   <sheets>
     <sheet name="LEGEND" sheetId="27" r:id="rId1"/>
@@ -30398,7 +30398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D42CA7-36D4-4300-B367-C77E8D5E25CA}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -30976,8 +30976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA07C27-4DA3-4DC0-BE20-62D49702D364}">
   <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34172,12 +34172,12 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -34271,10 +34271,10 @@
         <v>70.025688013948354</v>
       </c>
       <c r="F5" s="32">
-        <v>9999</v>
+        <v>9999999</v>
       </c>
       <c r="G5" s="32">
-        <v>9999</v>
+        <v>9999999</v>
       </c>
       <c r="H5" s="32">
         <v>232.0320116775589</v>
@@ -34312,10 +34312,10 @@
         <v>69.950946714649291</v>
       </c>
       <c r="F6" s="32">
-        <v>9999</v>
+        <v>9999999</v>
       </c>
       <c r="G6" s="32">
-        <v>9999</v>
+        <v>9999999</v>
       </c>
       <c r="H6" s="32">
         <v>180.62313348765065</v>
@@ -34626,11 +34626,11 @@
       </c>
       <c r="F19" s="32">
         <f t="shared" ref="F19:H19" si="1">F5</f>
-        <v>9999</v>
+        <v>9999999</v>
       </c>
       <c r="G19" s="32">
         <f t="shared" si="1"/>
-        <v>9999</v>
+        <v>9999999</v>
       </c>
       <c r="H19" s="32">
         <f t="shared" si="1"/>
@@ -34659,11 +34659,11 @@
       </c>
       <c r="F20" s="32">
         <f t="shared" si="3"/>
-        <v>9999</v>
+        <v>9999999</v>
       </c>
       <c r="G20" s="32">
         <f t="shared" si="3"/>
-        <v>9999</v>
+        <v>9999999</v>
       </c>
       <c r="H20" s="32">
         <f t="shared" si="3"/>
@@ -34845,8 +34845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DA41B5-4555-4ECC-9A08-B1A926FD14EC}">
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/transport_costs_emissions_raw.xlsx
+++ b/Data/transport_costs_emissions_raw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\egbertrv\Documents\GitHub\AIM_Norwegian_Freight_Model\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50135F56-8232-48B0-89C8-A3BAA42E8A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{50135F56-8232-48B0-89C8-A3BAA42E8A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8C0D241-7438-45D8-B187-40E116F6F7CF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{5AE32870-AF16-462E-B631-817A89F76936}"/>
+    <workbookView xWindow="13800" yWindow="0" windowWidth="30345" windowHeight="23400" firstSheet="2" activeTab="10" xr2:uid="{5AE32870-AF16-462E-B631-817A89F76936}"/>
   </bookViews>
   <sheets>
     <sheet name="LEGEND" sheetId="27" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3383" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="243">
   <si>
     <t>Mode</t>
   </si>
@@ -822,10 +822,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1068,7 +1068,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="39">
@@ -1077,9 +1077,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1100,12 +1100,12 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -1421,7 +1421,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1432,7 +1432,7 @@
   <dimension ref="B1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1811,223 +1811,43 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9569D7EE-B770-468F-B61A-E0DB82253C9A}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
+      <c r="B2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19">
+      <c r="B4">
         <v>30</v>
       </c>
     </row>
@@ -34845,7 +34665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DA41B5-4555-4ECC-9A08-B1A926FD14EC}">
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>

--- a/Data/transport_costs_emissions_raw.xlsx
+++ b/Data/transport_costs_emissions_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{50135F56-8232-48B0-89C8-A3BAA42E8A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8C0D241-7438-45D8-B187-40E116F6F7CF}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{50135F56-8232-48B0-89C8-A3BAA42E8A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BF43A45-696B-4319-8ECE-2BD88CA97F74}"/>
   <bookViews>
-    <workbookView xWindow="13800" yWindow="0" windowWidth="30345" windowHeight="23400" firstSheet="2" activeTab="10" xr2:uid="{5AE32870-AF16-462E-B631-817A89F76936}"/>
+    <workbookView xWindow="135" yWindow="60" windowWidth="13515" windowHeight="23190" firstSheet="2" activeTab="2" xr2:uid="{5AE32870-AF16-462E-B631-817A89F76936}"/>
   </bookViews>
   <sheets>
     <sheet name="LEGEND" sheetId="27" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3351" uniqueCount="245">
   <si>
     <t>Mode</t>
   </si>
@@ -816,6 +816,12 @@
   <si>
     <t>Raw data based on 2020, 2025; changed manually to 2022 and 2026</t>
   </si>
+  <si>
+    <t>THIS CANNOT MAKE SENSE!! Less emissions for road?</t>
+  </si>
+  <si>
+    <t>THIS IS WAY TOO HIGH!!, should be at around 400grams per tonne CO2</t>
+  </si>
 </sst>
 </file>
 
@@ -1132,6 +1138,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1813,7 +1823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9569D7EE-B770-468F-B61A-E0DB82253C9A}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -29953,7 +29963,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EE6192-3357-4DF0-8055-1C716AB42B8C}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -29968,6 +29980,9 @@
       <c r="A1" s="1" t="s">
         <v>214</v>
       </c>
+      <c r="E1" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
@@ -29992,6 +30007,9 @@
       </c>
       <c r="C4">
         <v>1274</v>
+      </c>
+      <c r="E4" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">

--- a/Data/transport_costs_emissions_raw.xlsx
+++ b/Data/transport_costs_emissions_raw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/STraM_ntnu_development/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{50135F56-8232-48B0-89C8-A3BAA42E8A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BF43A45-696B-4319-8ECE-2BD88CA97F74}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{50135F56-8232-48B0-89C8-A3BAA42E8A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD639988-B6B9-484A-9BFB-D777A2719D55}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="60" windowWidth="13515" windowHeight="23190" firstSheet="2" activeTab="2" xr2:uid="{5AE32870-AF16-462E-B631-817A89F76936}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" firstSheet="2" activeTab="13" xr2:uid="{5AE32870-AF16-462E-B631-817A89F76936}"/>
   </bookViews>
   <sheets>
     <sheet name="LEGEND" sheetId="27" r:id="rId1"/>
@@ -1077,7 +1077,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1086,9 +1086,9 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1109,9 +1109,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -1138,8 +1137,913 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CO2_fee!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CO2_fee!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.44E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2720000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4559999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9120000000000006E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-32D1-4EE3-92F8-0720F7F89071}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="750805384"/>
+        <c:axId val="750804304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="750805384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="750804304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="750804304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="750805384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nb-NO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{485E06EA-447F-0910-D1F6-B3D682C8BA88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1431,7 +2335,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1525,12 +2429,12 @@
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="36" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>238</v>
       </c>
     </row>
@@ -2061,13 +2965,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2648,8 +3552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A26ADBE-5182-4739-A39F-809BE890F4A3}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2746,6 +3650,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2768,7 +3673,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2808,7 +3713,7 @@
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="34" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2885,7 +3790,7 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2938,7 +3843,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="34" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2976,7 +3881,7 @@
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="34" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3119,7 +4024,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3175,7 +4080,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="34" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3188,7 +4093,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="34" t="s">
         <v>160</v>
       </c>
     </row>
@@ -29963,8 +30868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EE6192-3357-4DF0-8055-1C716AB42B8C}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29999,10 +30904,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
@@ -30013,10 +30918,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5">
@@ -30024,10 +30929,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6">
@@ -30035,45 +30940,32 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7">
         <f>(127+217)/2</f>
         <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8">
         <v>156</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="C9" s="31"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="C10" s="31"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C11" s="31"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="C12" s="31"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -30120,7 +31012,7 @@
         <f>(42/14000)*9000</f>
         <v>27</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="35" t="s">
         <v>217</v>
       </c>
     </row>
@@ -30138,7 +31030,7 @@
         <f>(28/4000)*2500</f>
         <v>17.5</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="35" t="s">
         <v>217</v>
       </c>
     </row>
@@ -30156,7 +31048,7 @@
         <f>(12/15000)*17000</f>
         <v>13.600000000000001</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="35" t="s">
         <v>217</v>
       </c>
     </row>
@@ -34033,7 +34925,6 @@
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
       <c r="B3" s="1" t="s">
         <v>125</v>
       </c>
@@ -34045,10 +34936,6 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
       <c r="M3" s="1" t="s">
         <v>125</v>
       </c>
@@ -34056,7 +34943,6 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
       <c r="B4" s="1" t="s">
         <v>126</v>
       </c>
@@ -34078,10 +34964,6 @@
       <c r="H4" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
       <c r="M4" s="1" t="s">
         <v>126</v>
       </c>
@@ -34096,40 +34978,37 @@
       <c r="A5" s="1">
         <v>2022</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="31">
         <v>1.2767928712592653</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="31">
         <v>2.1213845775913618</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="31">
         <v>2.1937387804084145</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="31">
         <v>70.025688013948354</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="31">
         <v>9999999</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="31">
         <v>9999999</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="31">
         <v>232.0320116775589</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
       <c r="L5" s="1">
         <v>2022</v>
       </c>
-      <c r="M5" s="32">
+      <c r="M5" s="31">
         <v>1.7730814709196963E-2</v>
       </c>
-      <c r="N5" s="32">
+      <c r="N5" s="31">
         <v>7.0669961483799351E-2</v>
       </c>
-      <c r="O5" s="32">
+      <c r="O5" s="31">
         <v>1.7730814709196963E-2</v>
       </c>
     </row>
@@ -34137,40 +35016,37 @@
       <c r="A6" s="1">
         <v>2026</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="31">
         <v>1.2763128712592651</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="31">
         <v>1.8539131909777176</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="31">
         <v>1.8635831400519962</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="31">
         <v>69.950946714649291</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="31">
         <v>9999999</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="31">
         <v>9999999</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="31">
         <v>180.62313348765065</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
       <c r="L6" s="1">
         <v>2026</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="31">
         <v>1.7730814709196963E-2</v>
       </c>
-      <c r="N6" s="32">
+      <c r="N6" s="31">
         <v>6.42564725061298E-2</v>
       </c>
-      <c r="O6" s="32">
+      <c r="O6" s="31">
         <v>1.7730814709196963E-2</v>
       </c>
     </row>
@@ -34178,40 +35054,37 @@
       <c r="A7" s="1">
         <v>2030</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="31">
         <v>1.2759928712592652</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="31">
         <v>1.6422220976950082</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="31">
         <v>1.6846665595885915</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="31">
         <v>69.901119181783244</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="31">
         <v>151.86171664778865</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="31">
         <v>146.84521118705186</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="31">
         <v>152.76384663352172</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
       <c r="L7" s="1">
         <v>2030</v>
       </c>
-      <c r="M7" s="32">
+      <c r="M7" s="31">
         <v>1.7730814709196963E-2</v>
       </c>
-      <c r="N7" s="32">
+      <c r="N7" s="31">
         <v>4.8759740450291647E-2</v>
       </c>
-      <c r="O7" s="32">
+      <c r="O7" s="31">
         <v>1.7730814709196963E-2</v>
       </c>
     </row>
@@ -34219,40 +35092,37 @@
       <c r="A8" s="1">
         <v>2035</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="31">
         <v>1.2757528712592652</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="31">
         <v>1.4955046571342974</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="31">
         <v>1.587752224593614</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="31">
         <v>69.863748532133712</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="31">
         <v>137.06926759396413</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="31">
         <v>134.23510106777977</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="31">
         <v>137.67321472054223</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
       <c r="L8" s="1">
         <v>2035</v>
       </c>
-      <c r="M8" s="32">
+      <c r="M8" s="31">
         <v>1.7730814709196963E-2</v>
       </c>
-      <c r="N8" s="32">
+      <c r="N8" s="31">
         <v>3.5837105494588684E-2</v>
       </c>
-      <c r="O8" s="32">
+      <c r="O8" s="31">
         <v>1.7730814709196963E-2</v>
       </c>
     </row>
@@ -34260,40 +35130,37 @@
       <c r="A9" s="1">
         <v>2040</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="31">
         <v>1.2755528712592652</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="31">
         <v>1.4378216218112176</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="31">
         <v>1.5271776831432882</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="31">
         <v>69.832606324092424</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="31">
         <v>123.02464296908737</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="31">
         <v>121.70752317473068</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="31">
         <v>128.24108986128627</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
       <c r="L9" s="1">
         <v>2040</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="31">
         <v>1.7730814709196963E-2</v>
       </c>
-      <c r="N9" s="32">
+      <c r="N9" s="31">
         <v>2.5030000097816377E-2</v>
       </c>
-      <c r="O9" s="32">
+      <c r="O9" s="31">
         <v>1.7730814709196963E-2</v>
       </c>
     </row>
@@ -34301,40 +35168,37 @@
       <c r="A10" s="1">
         <v>2045</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="31">
         <v>1.2753688712592655</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="31">
         <v>1.4011312462807095</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="31">
         <v>1.4827240084814306</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="31">
         <v>69.803955492694442</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="31">
         <v>111.25576902822024</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="31">
         <v>109.46912942997312</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="31">
         <v>121.31916193869151</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
       <c r="L10" s="1">
         <v>2045</v>
       </c>
-      <c r="M10" s="32">
+      <c r="M10" s="31">
         <v>1.7730814709196963E-2</v>
       </c>
-      <c r="N10" s="32">
+      <c r="N10" s="31">
         <v>2.3516659509040184E-2</v>
       </c>
-      <c r="O10" s="32">
+      <c r="O10" s="31">
         <v>1.7730814709196963E-2</v>
       </c>
     </row>
@@ -34342,59 +35206,53 @@
       <c r="A11" s="1">
         <v>2050</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="31">
         <v>1.2751928712592653</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="31">
         <v>1.3759969700023786</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="31">
         <v>1.4462779141014377</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="31">
         <v>69.77655034961812</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="31">
         <v>100.95840459329722</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="31">
         <v>98.429822230140488</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="31">
         <v>115.64410267132213</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
       <c r="L11" s="1">
         <v>2050</v>
       </c>
-      <c r="M11" s="32">
+      <c r="M11" s="31">
         <v>1.7730814709196963E-2</v>
       </c>
-      <c r="N11" s="32">
+      <c r="N11" s="31">
         <v>2.2340826533588171E-2</v>
       </c>
-      <c r="O11" s="32">
+      <c r="O11" s="31">
         <v>1.7730814709196963E-2</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -34405,7 +35263,6 @@
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
       <c r="B17" s="1" t="s">
         <v>125</v>
       </c>
@@ -34419,7 +35276,6 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
       <c r="B18" s="1" t="s">
         <v>126</v>
       </c>
@@ -34446,31 +35302,31 @@
       <c r="A19" s="1">
         <v>2022</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="31">
         <f>B5-M5</f>
         <v>1.2590620565500683</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="31">
         <f t="shared" ref="C19:D25" si="0">C5-N5</f>
         <v>2.0507146161075624</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="31">
         <f t="shared" si="0"/>
         <v>2.1760079656992177</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="31">
         <f>E5</f>
         <v>70.025688013948354</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="31">
         <f t="shared" ref="F19:H19" si="1">F5</f>
         <v>9999999</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="31">
         <f t="shared" si="1"/>
         <v>9999999</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="31">
         <f t="shared" si="1"/>
         <v>232.0320116775589</v>
       </c>
@@ -34479,31 +35335,31 @@
       <c r="A20" s="1">
         <v>2026</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="31">
         <f t="shared" ref="B20:B25" si="2">B6-M6</f>
         <v>1.2585820565500681</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="31">
         <f t="shared" si="0"/>
         <v>1.7896567184715877</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="31">
         <f t="shared" si="0"/>
         <v>1.8458523253427992</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="31">
         <f t="shared" ref="E20:H25" si="3">E6</f>
         <v>69.950946714649291</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="31">
         <f t="shared" si="3"/>
         <v>9999999</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="31">
         <f t="shared" si="3"/>
         <v>9999999</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="31">
         <f t="shared" si="3"/>
         <v>180.62313348765065</v>
       </c>
@@ -34512,31 +35368,31 @@
       <c r="A21" s="1">
         <v>2030</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="31">
         <f t="shared" si="2"/>
         <v>1.2582620565500682</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="31">
         <f t="shared" si="0"/>
         <v>1.5934623572447164</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="31">
         <f t="shared" si="0"/>
         <v>1.6669357448793944</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="31">
         <f t="shared" si="3"/>
         <v>69.901119181783244</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="31">
         <f t="shared" si="3"/>
         <v>151.86171664778865</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="31">
         <f t="shared" si="3"/>
         <v>146.84521118705186</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="31">
         <f t="shared" si="3"/>
         <v>152.76384663352172</v>
       </c>
@@ -34545,31 +35401,31 @@
       <c r="A22" s="1">
         <v>2035</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="31">
         <f t="shared" si="2"/>
         <v>1.2580220565500682</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="31">
         <f t="shared" si="0"/>
         <v>1.4596675516397086</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="31">
         <f t="shared" si="0"/>
         <v>1.570021409884417</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="31">
         <f t="shared" si="3"/>
         <v>69.863748532133712</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="31">
         <f t="shared" si="3"/>
         <v>137.06926759396413</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="31">
         <f t="shared" si="3"/>
         <v>134.23510106777977</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="31">
         <f t="shared" si="3"/>
         <v>137.67321472054223</v>
       </c>
@@ -34578,31 +35434,31 @@
       <c r="A23" s="1">
         <v>2040</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="31">
         <f t="shared" si="2"/>
         <v>1.2578220565500682</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="31">
         <f t="shared" si="0"/>
         <v>1.4127916217134013</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="31">
         <f t="shared" si="0"/>
         <v>1.5094468684340911</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="31">
         <f t="shared" si="3"/>
         <v>69.832606324092424</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="31">
         <f t="shared" si="3"/>
         <v>123.02464296908737</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="31">
         <f t="shared" si="3"/>
         <v>121.70752317473068</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="31">
         <f t="shared" si="3"/>
         <v>128.24108986128627</v>
       </c>
@@ -34611,31 +35467,31 @@
       <c r="A24" s="1">
         <v>2045</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="31">
         <f t="shared" si="2"/>
         <v>1.2576380565500684</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="31">
         <f t="shared" si="0"/>
         <v>1.3776145867716694</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="31">
         <f t="shared" si="0"/>
         <v>1.4649931937722336</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="31">
         <f t="shared" si="3"/>
         <v>69.803955492694442</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="31">
         <f t="shared" si="3"/>
         <v>111.25576902822024</v>
       </c>
-      <c r="G24" s="32">
+      <c r="G24" s="31">
         <f t="shared" si="3"/>
         <v>109.46912942997312</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="31">
         <f t="shared" si="3"/>
         <v>121.31916193869151</v>
       </c>
@@ -34644,31 +35500,31 @@
       <c r="A25" s="1">
         <v>2050</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="31">
         <f t="shared" si="2"/>
         <v>1.2574620565500683</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="31">
         <f t="shared" si="0"/>
         <v>1.3536561434687904</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="31">
         <f t="shared" si="0"/>
         <v>1.4285470993922407</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="31">
         <f t="shared" si="3"/>
         <v>69.77655034961812</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="31">
         <f t="shared" si="3"/>
         <v>100.95840459329722</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G25" s="31">
         <f t="shared" si="3"/>
         <v>98.429822230140488</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="31">
         <f t="shared" si="3"/>
         <v>115.64410267132213</v>
       </c>
@@ -34703,8 +35559,6 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
       <c r="C3" s="1">
         <v>2022</v>
       </c>
@@ -34726,8 +35580,6 @@
       <c r="I3" s="1">
         <v>2050</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
       <c r="N3" s="1">
         <v>2022</v>
       </c>
@@ -34757,25 +35609,25 @@
       <c r="B4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="31">
         <v>1.2767928712592653</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="31">
         <v>1.2763128712592651</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="31">
         <v>1.2759928712592652</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="31">
         <v>1.2757528712592652</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="31">
         <v>1.2755528712592652</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="31">
         <v>1.2753688712592655</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="31">
         <v>1.2751928712592653</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -34784,25 +35636,25 @@
       <c r="M4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N4" s="32">
+      <c r="N4" s="31">
         <v>1.7730814709196963E-2</v>
       </c>
-      <c r="O4" s="32">
+      <c r="O4" s="31">
         <v>1.7730814709196963E-2</v>
       </c>
-      <c r="P4" s="32">
+      <c r="P4" s="31">
         <v>1.7730814709196963E-2</v>
       </c>
-      <c r="Q4" s="32">
+      <c r="Q4" s="31">
         <v>1.7730814709196963E-2</v>
       </c>
-      <c r="R4" s="32">
+      <c r="R4" s="31">
         <v>1.7730814709196963E-2</v>
       </c>
-      <c r="S4" s="32">
+      <c r="S4" s="31">
         <v>1.7730814709196963E-2</v>
       </c>
-      <c r="T4" s="32">
+      <c r="T4" s="31">
         <v>1.7730814709196963E-2</v>
       </c>
     </row>
@@ -34811,50 +35663,50 @@
       <c r="B5" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="31">
         <v>2.1213845775913618</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="31">
         <v>1.8539131909777176</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="31">
         <v>1.6422220976950082</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="31">
         <v>1.4955046571342974</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="31">
         <v>1.4378216218112176</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="31">
         <v>1.4011312462807095</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="31">
         <v>1.3759969700023786</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="N5" s="32">
+      <c r="N5" s="31">
         <v>7.0669961483799351E-2</v>
       </c>
-      <c r="O5" s="32">
+      <c r="O5" s="31">
         <v>6.42564725061298E-2</v>
       </c>
-      <c r="P5" s="32">
+      <c r="P5" s="31">
         <v>4.8759740450291647E-2</v>
       </c>
-      <c r="Q5" s="32">
+      <c r="Q5" s="31">
         <v>3.5837105494588684E-2</v>
       </c>
-      <c r="R5" s="32">
+      <c r="R5" s="31">
         <v>2.5030000097816377E-2</v>
       </c>
-      <c r="S5" s="32">
+      <c r="S5" s="31">
         <v>2.3516659509040184E-2</v>
       </c>
-      <c r="T5" s="32">
+      <c r="T5" s="31">
         <v>2.2340826533588171E-2</v>
       </c>
     </row>
@@ -34863,50 +35715,50 @@
       <c r="B6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="31">
         <v>2.1937387804084145</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="31">
         <v>1.8635831400519962</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="31">
         <v>1.6846665595885915</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="31">
         <v>1.587752224593614</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="31">
         <v>1.5271776831432882</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="31">
         <v>1.4827240084814306</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="31">
         <v>1.4462779141014377</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N6" s="32">
+      <c r="N6" s="31">
         <v>1.7730814709196963E-2</v>
       </c>
-      <c r="O6" s="32">
+      <c r="O6" s="31">
         <v>1.7730814709196963E-2</v>
       </c>
-      <c r="P6" s="32">
+      <c r="P6" s="31">
         <v>1.7730814709196963E-2</v>
       </c>
-      <c r="Q6" s="32">
+      <c r="Q6" s="31">
         <v>1.7730814709196963E-2</v>
       </c>
-      <c r="R6" s="32">
+      <c r="R6" s="31">
         <v>1.7730814709196963E-2</v>
       </c>
-      <c r="S6" s="32">
+      <c r="S6" s="31">
         <v>1.7730814709196963E-2</v>
       </c>
-      <c r="T6" s="32">
+      <c r="T6" s="31">
         <v>1.7730814709196963E-2</v>
       </c>
     </row>
@@ -34917,130 +35769,130 @@
       <c r="B7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="31">
         <v>70.025688013948354</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="31">
         <v>69.950946714649291</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="31">
         <v>69.901119181783244</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="31">
         <v>69.863748532133712</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="31">
         <v>69.832606324092424</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="31">
         <v>69.803955492694442</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="31">
         <v>69.77655034961812</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="31">
         <v>999999</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="31">
         <v>999999</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="31">
         <v>151.86171664778865</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="31">
         <v>137.06926759396413</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="31">
         <v>123.02464296908737</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="31">
         <v>111.25576902822024</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="31">
         <v>100.95840459329722</v>
       </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="31">
         <v>999999</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="31">
         <v>999999</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="31">
         <v>146.84521118705186</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="31">
         <v>134.23510106777977</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="31">
         <v>121.70752317473068</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="31">
         <v>109.46912942997312</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="31">
         <v>98.429822230140488</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="31">
         <v>232.0320116775589</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="31">
         <v>180.62313348765065</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="31">
         <v>152.76384663352172</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="31">
         <v>137.67321472054223</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="31">
         <v>128.24108986128627</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="31">
         <v>121.31916193869151</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="31">
         <v>115.64410267132213</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L11" s="1"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -35080,73 +35932,73 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="31">
         <f t="shared" ref="C16:I18" si="0">C4-N4</f>
         <v>1.2590620565500683</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="31">
         <f t="shared" si="0"/>
         <v>1.2585820565500681</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="31">
         <f t="shared" si="0"/>
         <v>1.2582620565500682</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="31">
         <f t="shared" si="0"/>
         <v>1.2580220565500682</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="31">
         <f t="shared" si="0"/>
         <v>1.2578220565500682</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="31">
         <f t="shared" si="0"/>
         <v>1.2576380565500684</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I16" s="31">
         <f t="shared" si="0"/>
         <v>1.2574620565500683</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="31">
         <f t="shared" si="0"/>
         <v>2.0507146161075624</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="31">
         <f t="shared" si="0"/>
         <v>1.7896567184715877</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="31">
         <f t="shared" si="0"/>
         <v>1.5934623572447164</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="31">
         <f t="shared" si="0"/>
         <v>1.4596675516397086</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="31">
         <f t="shared" si="0"/>
         <v>1.4127916217134013</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="31">
         <f t="shared" si="0"/>
         <v>1.3776145867716694</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="31">
         <f t="shared" si="0"/>
         <v>1.3536561434687904</v>
       </c>
@@ -35161,44 +36013,43 @@
       <c r="AB17" s="1"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="31">
         <f t="shared" si="0"/>
         <v>2.1760079656992177</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="31">
         <f t="shared" si="0"/>
         <v>1.8458523253427992</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="31">
         <f t="shared" si="0"/>
         <v>1.6669357448793944</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="31">
         <f t="shared" si="0"/>
         <v>1.570021409884417</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="31">
         <f t="shared" si="0"/>
         <v>1.5094468684340911</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="31">
         <f t="shared" si="0"/>
         <v>1.4649931937722336</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="31">
         <f t="shared" si="0"/>
         <v>1.4285470993922407</v>
       </c>
       <c r="K18" t="s">
         <v>145</v>
       </c>
-      <c r="Q18" s="31"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -35212,41 +36063,40 @@
       <c r="AB18" s="1"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="A19" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="31">
         <f t="shared" ref="C19:I22" si="1">C7</f>
         <v>70.025688013948354</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="31">
         <f t="shared" si="1"/>
         <v>69.950946714649291</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="31">
         <f t="shared" si="1"/>
         <v>69.901119181783244</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="31">
         <f t="shared" si="1"/>
         <v>69.863748532133712</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="31">
         <f t="shared" si="1"/>
         <v>69.832606324092424</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="31">
         <f t="shared" si="1"/>
         <v>69.803955492694442</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="31">
         <f t="shared" si="1"/>
         <v>69.77655034961812</v>
       </c>
-      <c r="Q19" s="31"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -35260,43 +36110,43 @@
       <c r="AB19" s="1"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="31">
         <f t="shared" si="1"/>
         <v>999999</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="31">
         <f t="shared" si="1"/>
         <v>999999</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="31">
         <f t="shared" si="1"/>
         <v>151.86171664778865</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="31">
         <f t="shared" si="1"/>
         <v>137.06926759396413</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="31">
         <f t="shared" si="1"/>
         <v>123.02464296908737</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="31">
         <f t="shared" si="1"/>
         <v>111.25576902822024</v>
       </c>
-      <c r="I20" s="32">
+      <c r="I20" s="31">
         <f t="shared" si="1"/>
         <v>100.95840459329722</v>
       </c>
       <c r="Q20" s="1"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
@@ -35308,43 +36158,43 @@
       <c r="AB20" s="1"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="31">
         <f t="shared" si="1"/>
         <v>999999</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="31">
         <f t="shared" si="1"/>
         <v>999999</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="31">
         <f t="shared" si="1"/>
         <v>146.84521118705186</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="31">
         <f t="shared" si="1"/>
         <v>134.23510106777977</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="31">
         <f t="shared" si="1"/>
         <v>121.70752317473068</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="31">
         <f t="shared" si="1"/>
         <v>109.46912942997312</v>
       </c>
-      <c r="I21" s="32">
+      <c r="I21" s="31">
         <f t="shared" si="1"/>
         <v>98.429822230140488</v>
       </c>
       <c r="Q21" s="1"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -35356,37 +36206,37 @@
       <c r="AB21" s="1"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="31">
         <f t="shared" si="1"/>
         <v>232.0320116775589</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="31">
         <f t="shared" si="1"/>
         <v>180.62313348765065</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="31">
         <f t="shared" si="1"/>
         <v>152.76384663352172</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="31">
         <f t="shared" si="1"/>
         <v>137.67321472054223</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="31">
         <f t="shared" si="1"/>
         <v>128.24108986128627</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="31">
         <f t="shared" si="1"/>
         <v>121.31916193869151</v>
       </c>
-      <c r="I22" s="32">
+      <c r="I22" s="31">
         <f t="shared" si="1"/>
         <v>115.64410267132213</v>
       </c>
@@ -35394,8 +36244,8 @@
         <v>146</v>
       </c>
       <c r="Q22" s="1"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
@@ -35407,11 +36257,9 @@
       <c r="AB22" s="1"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
@@ -35423,16 +36271,16 @@
       <c r="AB23" s="1"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
@@ -35448,8 +36296,8 @@
         <v>191</v>
       </c>
       <c r="Q25" s="1"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
@@ -35462,8 +36310,8 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="Q26" s="1"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
@@ -35488,8 +36336,8 @@
         <v>190</v>
       </c>
       <c r="Q27" s="1"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
@@ -35524,7 +36372,7 @@
       <c r="AB28" s="1"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29" t="s">
@@ -35561,7 +36409,7 @@
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
+      <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
@@ -35606,7 +36454,7 @@
       <c r="A2">
         <v>9.6300000000000008</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="33">
         <v>44650</v>
       </c>
     </row>

--- a/Data/transport_costs_emissions_raw.xlsx
+++ b/Data/transport_costs_emissions_raw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/STraM_ntnu_development/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{50135F56-8232-48B0-89C8-A3BAA42E8A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD639988-B6B9-484A-9BFB-D777A2719D55}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{50135F56-8232-48B0-89C8-A3BAA42E8A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CC2653D-7196-40C4-BA93-2202D6065E9C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" firstSheet="2" activeTab="13" xr2:uid="{5AE32870-AF16-462E-B631-817A89F76936}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="28800" windowHeight="23400" firstSheet="2" activeTab="4" xr2:uid="{5AE32870-AF16-462E-B631-817A89F76936}"/>
   </bookViews>
   <sheets>
     <sheet name="LEGEND" sheetId="27" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3351" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3373" uniqueCount="243">
   <si>
     <t>Mode</t>
   </si>
@@ -289,19 +289,7 @@
     <t>Product</t>
   </si>
   <si>
-    <t>Transfer type</t>
-  </si>
-  <si>
     <t>Transfer cost</t>
-  </si>
-  <si>
-    <t>sea-rail</t>
-  </si>
-  <si>
-    <t>sea-road</t>
-  </si>
-  <si>
-    <t>rail-road</t>
   </si>
   <si>
     <t>Fuels based on onshore wind power (resulting in medium-transport cost, use of wind offshore results in higher, use of hydro power in lower fuel/transport cost)</t>
@@ -821,6 +809,12 @@
   </si>
   <si>
     <t>THIS IS WAY TOO HIGH!!, should be at around 400grams per tonne CO2</t>
+  </si>
+  <si>
+    <t>Transfer from</t>
+  </si>
+  <si>
+    <t>Transfer to</t>
   </si>
 </sst>
 </file>
@@ -2357,85 +2351,85 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="36" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="36" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2738,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2790,10 +2784,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2961,12 +2955,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D2" s="37" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E2" s="37"/>
       <c r="F2" s="37"/>
@@ -2981,7 +2975,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D3" s="1">
         <v>2022</v>
@@ -2999,10 +2993,10 @@
         <v>2050</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3031,7 +3025,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3060,7 +3054,7 @@
         <v>0.83</v>
       </c>
       <c r="J5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3089,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3118,10 +3112,10 @@
         <v>1.17</v>
       </c>
       <c r="I7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3150,10 +3144,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="I8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3182,7 +3176,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3211,7 +3205,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3240,7 +3234,7 @@
         <v>1.07</v>
       </c>
       <c r="J11" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3269,7 +3263,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3298,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3327,10 +3321,10 @@
         <v>1.28</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J14" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3359,10 +3353,10 @@
         <v>1.05</v>
       </c>
       <c r="I15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3391,7 +3385,7 @@
         <v>1.2</v>
       </c>
       <c r="J16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -3420,7 +3414,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -3428,7 +3422,7 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -3449,7 +3443,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J18" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -3478,7 +3472,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J19" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -3507,7 +3501,7 @@
         <v>1.25</v>
       </c>
       <c r="J20" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -3536,7 +3530,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="J21" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3552,7 +3546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A26ADBE-5182-4739-A39F-809BE890F4A3}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
@@ -3669,87 +3663,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3775,13 +3769,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3791,98 +3785,98 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3890,7 +3884,7 @@
         <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3898,15 +3892,15 @@
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3914,7 +3908,7 @@
         <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3922,7 +3916,7 @@
         <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3930,7 +3924,7 @@
         <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3938,7 +3932,7 @@
         <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3946,7 +3940,7 @@
         <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3954,37 +3948,37 @@
         <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4014,95 +4008,95 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B14" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -4110,7 +4104,7 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4118,7 +4112,7 @@
         <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -5786,7 +5780,7 @@
         <v>7.4927820000000006E-2</v>
       </c>
       <c r="N37" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -30883,10 +30877,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -30900,7 +30894,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -30914,7 +30908,7 @@
         <v>1274</v>
       </c>
       <c r="E4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -30964,7 +30958,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -30978,10 +30972,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -31013,7 +31007,7 @@
         <v>27</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -31031,7 +31025,7 @@
         <v>17.5</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -31049,7 +31043,7 @@
         <v>13.600000000000001</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -31110,7 +31104,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -31141,7 +31135,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -31152,13 +31146,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -31292,7 +31286,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -31309,7 +31303,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -31368,7 +31362,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -31376,7 +31370,7 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -31399,7 +31393,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -31416,7 +31410,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -31441,258 +31435,325 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B08A794-8873-43D6-A027-1749091B636F}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="14">
+        <v>40</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="14">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="16">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="16">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="19">
+      <c r="B4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="14">
+        <v>40</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="14">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="16">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="16">
         <v>356</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="19">
+      <c r="B7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="19">
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="14">
+        <v>40</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="14">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="16">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="16">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="19">
+      <c r="B10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="19">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="14">
+        <v>40</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="14">
         <v>293</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="16">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16">
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="19">
+      <c r="B13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="19">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="14">
+        <v>40</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="14">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="16">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="16">
         <v>356</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="19">
+      <c r="B16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="19">
         <v>381</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="14">
+        <v>40</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="14">
         <v>133.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="16">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="16">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="19">
+      <c r="B19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="19">
         <v>35.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="14">
+        <v>40</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="14">
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="16">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="16">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="19">
+      <c r="B22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="19">
         <v>17</v>
       </c>
     </row>
@@ -31714,7 +31775,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -31742,7 +31803,7 @@
       <c r="Y1" s="21"/>
       <c r="Z1" s="21"/>
       <c r="AC1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -31803,46 +31864,46 @@
     </row>
     <row r="4" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="M4" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="N4" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="O4" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="P4" s="24" t="s">
         <v>85</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="P4" s="24" t="s">
-        <v>89</v>
       </c>
       <c r="Q4" s="23"/>
       <c r="R4" s="23"/>
@@ -31915,7 +31976,7 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26">
@@ -31987,71 +32048,71 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N8" s="27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O8" s="27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P8" s="27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q8" s="27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R8" s="27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S8" s="27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T8" s="27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="U8" s="27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="V8" s="27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="W8" s="27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="X8" s="21"/>
       <c r="Y8" s="21"/>
@@ -32059,10 +32120,10 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C9" s="28">
         <v>1.1872681653769124</v>
@@ -32133,10 +32194,10 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C10" s="29">
         <v>4.7490726615076494E-2</v>
@@ -32235,7 +32296,7 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -32265,7 +32326,7 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="26">
@@ -32337,71 +32398,71 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K14" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L14" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M14" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N14" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O14" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P14" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R14" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S14" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T14" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="U14" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="V14" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="W14" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="X14" s="21"/>
       <c r="Y14" s="21"/>
@@ -32409,10 +32470,10 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C15" s="29">
         <v>1.8772585620441018</v>
@@ -32483,10 +32544,10 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C16" s="29">
         <v>7.5090342481764077E-2</v>
@@ -32585,7 +32646,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -32615,7 +32676,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="26">
@@ -32687,71 +32748,71 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K20" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M20" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N20" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O20" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P20" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q20" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R20" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S20" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T20" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="U20" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="V20" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="W20" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="X20" s="21"/>
       <c r="Y20" s="21"/>
@@ -32759,10 +32820,10 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C21" s="29">
         <v>1.9128815567439508</v>
@@ -32833,10 +32894,10 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C22" s="29">
         <v>7.6515262269758036E-2</v>
@@ -32935,7 +32996,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -33037,67 +33098,67 @@
       <c r="A26" s="26"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K26" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L26" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M26" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N26" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O26" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P26" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q26" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R26" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S26" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T26" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="U26" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="V26" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="W26" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="X26" s="21"/>
       <c r="Y26" s="21"/>
@@ -33105,10 +33166,10 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C27" s="29">
         <v>1.7730814709196963E-2</v>
@@ -33179,10 +33240,10 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C28" s="30">
         <v>6.6870501188971421E-2</v>
@@ -33253,10 +33314,10 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C29" s="29">
         <v>1.7730814709196963E-2</v>
@@ -33383,48 +33444,48 @@
     </row>
     <row r="32" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
       <c r="D32" s="23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G32" s="23"/>
       <c r="H32" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I32" s="23"/>
       <c r="J32" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="K32" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="L32" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="M32" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="N32" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="O32" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="K32" s="24" t="s">
+      <c r="P32" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="L32" s="24" t="s">
+      <c r="Q32" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="M32" s="24" t="s">
+      <c r="R32" s="24" t="s">
         <v>111</v>
-      </c>
-      <c r="N32" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="O32" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="P32" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q32" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="R32" s="24" t="s">
-        <v>115</v>
       </c>
       <c r="S32" s="23"/>
       <c r="T32" s="23"/>
@@ -33437,7 +33498,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -33467,7 +33528,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B34" s="26"/>
       <c r="C34" s="26">
@@ -33539,71 +33600,71 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J35" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K35" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L35" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M35" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N35" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O35" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P35" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q35" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R35" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S35" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T35" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="U35" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="V35" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="W35" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="X35" s="21"/>
       <c r="Y35" s="21"/>
@@ -33611,10 +33672,10 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C36" s="29">
         <v>63.330442147181053</v>
@@ -33685,10 +33746,10 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C37" s="29">
         <v>6.701634089648789E-3</v>
@@ -33787,7 +33848,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -33817,7 +33878,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B40" s="26"/>
       <c r="C40" s="26">
@@ -33889,71 +33950,71 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B41" s="26"/>
       <c r="C41" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J41" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K41" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L41" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M41" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N41" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O41" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P41" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q41" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R41" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S41" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T41" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="U41" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="V41" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="W41" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="X41" s="21"/>
       <c r="Y41" s="21"/>
@@ -33961,10 +34022,10 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C42" s="29">
         <v>0</v>
@@ -34035,10 +34096,10 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C43" s="29">
         <v>0</v>
@@ -34137,7 +34198,7 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -34167,7 +34228,7 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B46" s="26"/>
       <c r="C46" s="26">
@@ -34239,71 +34300,71 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B47" s="26"/>
       <c r="C47" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H47" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I47" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J47" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K47" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L47" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M47" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N47" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O47" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P47" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q47" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R47" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S47" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T47" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="U47" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="V47" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="W47" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="X47" s="21"/>
       <c r="Y47" s="21"/>
@@ -34311,10 +34372,10 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C48" s="29">
         <v>0</v>
@@ -34385,10 +34446,10 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C49" s="29">
         <v>0</v>
@@ -34487,7 +34548,7 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -34517,7 +34578,7 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B52" s="26"/>
       <c r="C52" s="26">
@@ -34589,71 +34650,71 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B53" s="26"/>
       <c r="C53" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G53" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H53" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I53" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J53" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K53" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L53" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M53" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N53" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O53" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P53" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q53" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R53" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S53" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T53" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="U53" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="V53" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="W53" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="X53" s="21"/>
       <c r="Y53" s="21"/>
@@ -34661,10 +34722,10 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C54" s="29">
         <v>188.29944123128348</v>
@@ -34735,10 +34796,10 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C55" s="29">
         <v>1.9925866796961216E-2</v>
@@ -34912,13 +34973,13 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="R1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -34926,52 +34987,52 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -35256,7 +35317,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -35264,12 +35325,12 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -35277,25 +35338,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -35552,10 +35613,10 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -35607,7 +35668,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C4" s="31">
         <v>1.2767928712592653</v>
@@ -35634,7 +35695,7 @@
         <v>6</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="N4" s="31">
         <v>1.7730814709196963E-2</v>
@@ -35661,7 +35722,7 @@
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C5" s="31">
         <v>2.1213845775913618</v>
@@ -35686,7 +35747,7 @@
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N5" s="31">
         <v>7.0669961483799351E-2</v>
@@ -35713,7 +35774,7 @@
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C6" s="31">
         <v>2.1937387804084145</v>
@@ -35738,7 +35799,7 @@
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="N6" s="31">
         <v>1.7730814709196963E-2</v>
@@ -35798,7 +35859,7 @@
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C8" s="31">
         <v>999999</v>
@@ -35829,7 +35890,7 @@
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C9" s="31">
         <v>999999</v>
@@ -35860,7 +35921,7 @@
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C10" s="31">
         <v>232.0320116775589</v>
@@ -35896,7 +35957,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -36017,7 +36078,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C18" s="31">
         <f t="shared" si="0"/>
@@ -36048,7 +36109,7 @@
         <v>1.4285470993922407</v>
       </c>
       <c r="K18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -36210,7 +36271,7 @@
         <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C22" s="31">
         <f t="shared" si="1"/>
@@ -36241,7 +36302,7 @@
         <v>115.64410267132213</v>
       </c>
       <c r="K22" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="31"/>
@@ -36293,7 +36354,7 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="31"/>
@@ -36333,7 +36394,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="31"/>
@@ -36444,10 +36505,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/Data/transport_costs_emissions_raw.xlsx
+++ b/Data/transport_costs_emissions_raw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/STraM_ntnu_development/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\STraM_ntnu_development\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{50135F56-8232-48B0-89C8-A3BAA42E8A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD639988-B6B9-484A-9BFB-D777A2719D55}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B285D2-970E-4AFE-A7E1-52E969457EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" firstSheet="2" activeTab="13" xr2:uid="{5AE32870-AF16-462E-B631-817A89F76936}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{5AE32870-AF16-462E-B631-817A89F76936}"/>
   </bookViews>
   <sheets>
     <sheet name="LEGEND" sheetId="27" r:id="rId1"/>
@@ -828,10 +828,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1074,7 +1074,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
@@ -1083,9 +1083,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1106,11 +1106,11 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -2346,7 +2346,7 @@
   <dimension ref="B1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2465,9 +2465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4663A21-150A-4914-BC6D-954E6813A5C4}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2775,9 +2773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61F1785-A9D2-43D6-AF64-887423AF0701}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2948,9 +2944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87DB01C-C28B-4466-B068-FD0A64E87CCA}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3552,9 +3546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A26ADBE-5182-4739-A39F-809BE890F4A3}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -30868,9 +30860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EE6192-3357-4DF0-8055-1C716AB42B8C}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -31443,8 +31433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B08A794-8873-43D6-A027-1749091B636F}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31706,9 +31696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA07C27-4DA3-4DC0-BE20-62D49702D364}">
   <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -34901,9 +34889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CDBB70-C564-430C-8368-0301BECC4495}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -35539,9 +35525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DA41B5-4555-4ECC-9A08-B1A926FD14EC}">
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -36432,9 +36416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C003461F-E7F2-4532-B47B-B811710E9E75}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Data/transport_costs_emissions_raw.xlsx
+++ b/Data/transport_costs_emissions_raw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\STraM_ntnu_development\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/STraM_ntnu_development/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B285D2-970E-4AFE-A7E1-52E969457EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{54B285D2-970E-4AFE-A7E1-52E969457EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6F85BB1-6D07-4114-8903-3066592611FA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{5AE32870-AF16-462E-B631-817A89F76936}"/>
+    <workbookView xWindow="-19310" yWindow="6590" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{5AE32870-AF16-462E-B631-817A89F76936}"/>
   </bookViews>
   <sheets>
     <sheet name="LEGEND" sheetId="27" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3351" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3373" uniqueCount="243">
   <si>
     <t>Mode</t>
   </si>
@@ -289,19 +289,7 @@
     <t>Product</t>
   </si>
   <si>
-    <t>Transfer type</t>
-  </si>
-  <si>
     <t>Transfer cost</t>
-  </si>
-  <si>
-    <t>sea-rail</t>
-  </si>
-  <si>
-    <t>sea-road</t>
-  </si>
-  <si>
-    <t>rail-road</t>
   </si>
   <si>
     <t>Fuels based on onshore wind power (resulting in medium-transport cost, use of wind offshore results in higher, use of hydro power in lower fuel/transport cost)</t>
@@ -822,16 +810,22 @@
   <si>
     <t>THIS IS WAY TOO HIGH!!, should be at around 400grams per tonne CO2</t>
   </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1074,18 +1068,18 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1106,11 +1100,11 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -1118,6 +1112,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2357,85 +2352,85 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="36" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="36" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2736,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2786,10 +2781,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2955,12 +2950,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D2" s="37" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E2" s="37"/>
       <c r="F2" s="37"/>
@@ -2975,7 +2970,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D3" s="1">
         <v>2022</v>
@@ -2993,10 +2988,10 @@
         <v>2050</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3025,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3054,7 +3049,7 @@
         <v>0.83</v>
       </c>
       <c r="J5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3083,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3112,10 +3107,10 @@
         <v>1.17</v>
       </c>
       <c r="I7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3144,10 +3139,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="I8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3176,7 +3171,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3205,7 +3200,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3234,7 +3229,7 @@
         <v>1.07</v>
       </c>
       <c r="J11" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3263,7 +3258,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3292,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3321,10 +3316,10 @@
         <v>1.28</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J14" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3353,10 +3348,10 @@
         <v>1.05</v>
       </c>
       <c r="I15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3385,7 +3380,7 @@
         <v>1.2</v>
       </c>
       <c r="J16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -3414,7 +3409,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -3422,7 +3417,7 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -3443,7 +3438,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J18" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -3472,7 +3467,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J19" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -3501,7 +3496,7 @@
         <v>1.25</v>
       </c>
       <c r="J20" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -3530,7 +3525,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="J21" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3661,87 +3656,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3767,13 +3762,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3783,98 +3778,98 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3882,7 +3877,7 @@
         <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3890,15 +3885,15 @@
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3906,7 +3901,7 @@
         <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3914,7 +3909,7 @@
         <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3922,7 +3917,7 @@
         <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3930,7 +3925,7 @@
         <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3938,7 +3933,7 @@
         <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3946,37 +3941,37 @@
         <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4006,95 +4001,95 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B14" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -4102,7 +4097,7 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4110,7 +4105,7 @@
         <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -5778,7 +5773,7 @@
         <v>7.4927820000000006E-2</v>
       </c>
       <c r="N37" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -30873,10 +30868,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -30890,7 +30885,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -30904,7 +30899,7 @@
         <v>1274</v>
       </c>
       <c r="E4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -30954,7 +30949,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -30968,10 +30963,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -31003,7 +30998,7 @@
         <v>27</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -31021,7 +31016,7 @@
         <v>17.5</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -31039,7 +31034,7 @@
         <v>13.600000000000001</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -31100,7 +31095,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -31131,7 +31126,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -31142,13 +31137,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -31282,7 +31277,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -31299,7 +31294,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -31358,7 +31353,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -31366,7 +31361,7 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -31389,7 +31384,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -31406,7 +31401,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -31431,258 +31426,324 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B08A794-8873-43D6-A027-1749091B636F}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="14">
+        <v>40</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="14">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="16">
+      <c r="B3" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="16">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="19">
+        <v>32</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="14">
+        <v>40</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="14">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="16">
+      <c r="B6" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="16">
         <v>356</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="19">
+        <v>32</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="19">
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="14">
+        <v>40</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="14">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="16">
+      <c r="B9" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="16">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="19">
+        <v>32</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="19">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="14">
+        <v>40</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="14">
         <v>293</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="16">
+      <c r="B12" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16">
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="19">
+        <v>32</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="19">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="14">
+        <v>40</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="14">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="16">
+      <c r="B15" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="16">
         <v>356</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>64</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="19">
+        <v>32</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="19">
         <v>381</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="14">
+        <v>40</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="14">
         <v>133.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="16">
+      <c r="B18" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="16">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="19">
+        <v>32</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="19">
         <v>35.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="14">
+        <v>40</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="14">
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="16">
+      <c r="B21" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="16">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="19">
+        <v>32</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="19">
         <v>17</v>
       </c>
     </row>
@@ -31702,7 +31763,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -31730,7 +31791,7 @@
       <c r="Y1" s="21"/>
       <c r="Z1" s="21"/>
       <c r="AC1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -31791,46 +31852,46 @@
     </row>
     <row r="4" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="M4" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="N4" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="O4" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="P4" s="24" t="s">
         <v>85</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="P4" s="24" t="s">
-        <v>89</v>
       </c>
       <c r="Q4" s="23"/>
       <c r="R4" s="23"/>
@@ -31903,7 +31964,7 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26">
@@ -31975,71 +32036,71 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N8" s="27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O8" s="27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P8" s="27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q8" s="27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R8" s="27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S8" s="27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T8" s="27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="U8" s="27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="V8" s="27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="W8" s="27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="X8" s="21"/>
       <c r="Y8" s="21"/>
@@ -32047,10 +32108,10 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C9" s="28">
         <v>1.1872681653769124</v>
@@ -32121,10 +32182,10 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C10" s="29">
         <v>4.7490726615076494E-2</v>
@@ -32223,7 +32284,7 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -32253,7 +32314,7 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="26">
@@ -32325,71 +32386,71 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K14" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L14" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M14" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N14" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O14" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P14" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R14" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S14" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T14" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="U14" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="V14" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="W14" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="X14" s="21"/>
       <c r="Y14" s="21"/>
@@ -32397,10 +32458,10 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C15" s="29">
         <v>1.8772585620441018</v>
@@ -32471,10 +32532,10 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C16" s="29">
         <v>7.5090342481764077E-2</v>
@@ -32573,7 +32634,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -32603,7 +32664,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="26">
@@ -32675,71 +32736,71 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K20" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M20" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N20" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O20" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P20" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q20" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R20" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S20" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T20" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="U20" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="V20" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="W20" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="X20" s="21"/>
       <c r="Y20" s="21"/>
@@ -32747,10 +32808,10 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C21" s="29">
         <v>1.9128815567439508</v>
@@ -32821,10 +32882,10 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C22" s="29">
         <v>7.6515262269758036E-2</v>
@@ -32923,7 +32984,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -33025,67 +33086,67 @@
       <c r="A26" s="26"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K26" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L26" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M26" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N26" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O26" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P26" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q26" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R26" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S26" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T26" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="U26" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="V26" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="W26" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="X26" s="21"/>
       <c r="Y26" s="21"/>
@@ -33093,10 +33154,10 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C27" s="29">
         <v>1.7730814709196963E-2</v>
@@ -33167,10 +33228,10 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C28" s="30">
         <v>6.6870501188971421E-2</v>
@@ -33241,10 +33302,10 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C29" s="29">
         <v>1.7730814709196963E-2</v>
@@ -33371,48 +33432,48 @@
     </row>
     <row r="32" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
       <c r="D32" s="23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G32" s="23"/>
       <c r="H32" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I32" s="23"/>
       <c r="J32" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="K32" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="L32" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="M32" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="N32" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="O32" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="K32" s="24" t="s">
+      <c r="P32" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="L32" s="24" t="s">
+      <c r="Q32" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="M32" s="24" t="s">
+      <c r="R32" s="24" t="s">
         <v>111</v>
-      </c>
-      <c r="N32" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="O32" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="P32" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q32" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="R32" s="24" t="s">
-        <v>115</v>
       </c>
       <c r="S32" s="23"/>
       <c r="T32" s="23"/>
@@ -33425,7 +33486,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -33455,7 +33516,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B34" s="26"/>
       <c r="C34" s="26">
@@ -33527,71 +33588,71 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J35" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K35" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L35" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M35" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N35" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O35" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P35" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q35" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R35" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S35" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T35" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="U35" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="V35" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="W35" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="X35" s="21"/>
       <c r="Y35" s="21"/>
@@ -33599,10 +33660,10 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C36" s="29">
         <v>63.330442147181053</v>
@@ -33673,10 +33734,10 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C37" s="29">
         <v>6.701634089648789E-3</v>
@@ -33775,7 +33836,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -33805,7 +33866,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B40" s="26"/>
       <c r="C40" s="26">
@@ -33877,71 +33938,71 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B41" s="26"/>
       <c r="C41" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J41" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K41" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L41" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M41" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N41" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O41" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P41" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q41" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R41" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S41" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T41" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="U41" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="V41" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="W41" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="X41" s="21"/>
       <c r="Y41" s="21"/>
@@ -33949,10 +34010,10 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C42" s="29">
         <v>0</v>
@@ -34023,10 +34084,10 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C43" s="29">
         <v>0</v>
@@ -34125,7 +34186,7 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -34155,7 +34216,7 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B46" s="26"/>
       <c r="C46" s="26">
@@ -34227,71 +34288,71 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B47" s="26"/>
       <c r="C47" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H47" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I47" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J47" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K47" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L47" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M47" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N47" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O47" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P47" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q47" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R47" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S47" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T47" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="U47" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="V47" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="W47" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="X47" s="21"/>
       <c r="Y47" s="21"/>
@@ -34299,10 +34360,10 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C48" s="29">
         <v>0</v>
@@ -34373,10 +34434,10 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C49" s="29">
         <v>0</v>
@@ -34475,7 +34536,7 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -34505,7 +34566,7 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B52" s="26"/>
       <c r="C52" s="26">
@@ -34577,71 +34638,71 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B53" s="26"/>
       <c r="C53" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G53" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H53" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I53" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J53" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K53" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L53" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M53" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N53" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O53" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P53" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q53" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R53" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S53" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T53" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="U53" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="V53" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="W53" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="X53" s="21"/>
       <c r="Y53" s="21"/>
@@ -34649,10 +34710,10 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C54" s="29">
         <v>188.29944123128348</v>
@@ -34723,10 +34784,10 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C55" s="29">
         <v>1.9925866796961216E-2</v>
@@ -34898,13 +34959,13 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="R1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -34912,52 +34973,52 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -35242,7 +35303,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -35250,12 +35311,12 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -35263,25 +35324,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -35536,10 +35597,10 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -35591,7 +35652,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C4" s="31">
         <v>1.2767928712592653</v>
@@ -35618,7 +35679,7 @@
         <v>6</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="N4" s="31">
         <v>1.7730814709196963E-2</v>
@@ -35645,7 +35706,7 @@
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C5" s="31">
         <v>2.1213845775913618</v>
@@ -35670,7 +35731,7 @@
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N5" s="31">
         <v>7.0669961483799351E-2</v>
@@ -35697,7 +35758,7 @@
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C6" s="31">
         <v>2.1937387804084145</v>
@@ -35722,7 +35783,7 @@
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="N6" s="31">
         <v>1.7730814709196963E-2</v>
@@ -35782,7 +35843,7 @@
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C8" s="31">
         <v>999999</v>
@@ -35813,7 +35874,7 @@
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C9" s="31">
         <v>999999</v>
@@ -35844,7 +35905,7 @@
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C10" s="31">
         <v>232.0320116775589</v>
@@ -35880,7 +35941,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -36001,7 +36062,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C18" s="31">
         <f t="shared" si="0"/>
@@ -36032,7 +36093,7 @@
         <v>1.4285470993922407</v>
       </c>
       <c r="K18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -36194,7 +36255,7 @@
         <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C22" s="31">
         <f t="shared" si="1"/>
@@ -36225,7 +36286,7 @@
         <v>115.64410267132213</v>
       </c>
       <c r="K22" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="31"/>
@@ -36277,7 +36338,7 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="31"/>
@@ -36317,7 +36378,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="31"/>
@@ -36426,10 +36487,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/Data/transport_costs_emissions_raw.xlsx
+++ b/Data/transport_costs_emissions_raw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/STraM_ntnu_development/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{54B285D2-970E-4AFE-A7E1-52E969457EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6F85BB1-6D07-4114-8903-3066592611FA}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{54B285D2-970E-4AFE-A7E1-52E969457EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A65C804C-7FAF-4465-809A-033E18FA16A7}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="6590" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{5AE32870-AF16-462E-B631-817A89F76936}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="28800" windowHeight="22170" firstSheet="2" activeTab="9" xr2:uid="{5AE32870-AF16-462E-B631-817A89F76936}"/>
   </bookViews>
   <sheets>
     <sheet name="LEGEND" sheetId="27" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3373" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3355" uniqueCount="251">
   <si>
     <t>Mode</t>
   </si>
@@ -816,6 +816,30 @@
   <si>
     <t>From</t>
   </si>
+  <si>
+    <t>Break bulk</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>Liquid bulk</t>
+  </si>
+  <si>
+    <t>System trains (Liquid bulk)</t>
+  </si>
+  <si>
+    <t>Neo bulk</t>
+  </si>
+  <si>
+    <t>Neo bulk truck with hanger</t>
+  </si>
+  <si>
+    <t>Neo bulk trains</t>
+  </si>
+  <si>
+    <t>Product class</t>
+  </si>
 </sst>
 </file>
 
@@ -1071,7 +1095,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1112,7 +1136,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2458,9 +2481,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4663A21-150A-4914-BC6D-954E6813A5C4}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2473,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2495,7 +2520,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -2506,10 +2531,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2517,10 +2542,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>247</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2528,32 +2553,32 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>245</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>244</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2561,10 +2586,10 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>243</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2572,10 +2597,10 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>247</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2583,54 +2608,54 @@
         <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>245</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>244</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2638,76 +2663,10 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>245</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -31428,7 +31387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B08A794-8873-43D6-A027-1749091B636F}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -31471,10 +31430,10 @@
       <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="16">
@@ -31513,10 +31472,10 @@
       <c r="A6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="16">
@@ -31555,10 +31514,10 @@
       <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="16">
@@ -31597,10 +31556,10 @@
       <c r="A12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="16">
@@ -31639,10 +31598,10 @@
       <c r="A15" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="16">
@@ -31681,10 +31640,10 @@
       <c r="A18" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="16">
@@ -31723,10 +31682,10 @@
       <c r="A21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="16">

--- a/Data/transport_costs_emissions_raw.xlsx
+++ b/Data/transport_costs_emissions_raw.xlsx
@@ -1,57 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/STraM_ntnu_development/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{54B285D2-970E-4AFE-A7E1-52E969457EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A65C804C-7FAF-4465-809A-033E18FA16A7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{DE5FCA3E-AA29-4B05-BC8B-E72E4D6ED829}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="28800" windowHeight="22170" firstSheet="2" activeTab="9" xr2:uid="{5AE32870-AF16-462E-B631-817A89F76936}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="28800" windowHeight="22170" tabRatio="683" activeTab="1" xr2:uid="{5AE32870-AF16-462E-B631-817A89F76936}"/>
   </bookViews>
   <sheets>
     <sheet name="LEGEND" sheetId="27" r:id="rId1"/>
-    <sheet name="Costs_OLD" sheetId="1" r:id="rId2"/>
-    <sheet name="base_emissions" sheetId="23" r:id="rId3"/>
-    <sheet name="rel_emission_factors" sheetId="24" r:id="rId4"/>
-    <sheet name="transfer_costs" sheetId="9" r:id="rId5"/>
-    <sheet name="raw_data" sheetId="10" r:id="rId6"/>
-    <sheet name="base_costs_intermediate" sheetId="11" r:id="rId7"/>
-    <sheet name="base_costs" sheetId="17" r:id="rId8"/>
-    <sheet name="EUR_TO_NOK" sheetId="20" r:id="rId9"/>
-    <sheet name="prod_to_vehicle" sheetId="19" r:id="rId10"/>
-    <sheet name="lifetimes" sheetId="26" r:id="rId11"/>
-    <sheet name="vehicle_cap" sheetId="15" r:id="rId12"/>
-    <sheet name="cost_factors" sheetId="16" r:id="rId13"/>
-    <sheet name="CO2_fee" sheetId="25" r:id="rId14"/>
-    <sheet name="assumptions" sheetId="12" r:id="rId15"/>
-    <sheet name="Sources costs" sheetId="21" r:id="rId16"/>
-    <sheet name="Sources emissions" sheetId="22" r:id="rId17"/>
+    <sheet name="emission_cap" sheetId="28" r:id="rId2"/>
+    <sheet name="Costs_OLD" sheetId="1" r:id="rId3"/>
+    <sheet name="base_emissions" sheetId="23" r:id="rId4"/>
+    <sheet name="rel_emission_factors" sheetId="24" r:id="rId5"/>
+    <sheet name="transfer_costs" sheetId="9" r:id="rId6"/>
+    <sheet name="raw_data" sheetId="10" r:id="rId7"/>
+    <sheet name="base_costs_intermediate" sheetId="11" r:id="rId8"/>
+    <sheet name="base_costs" sheetId="17" r:id="rId9"/>
+    <sheet name="EUR_TO_NOK" sheetId="20" r:id="rId10"/>
+    <sheet name="prod_to_vehicle" sheetId="19" r:id="rId11"/>
+    <sheet name="lifetimes" sheetId="26" r:id="rId12"/>
+    <sheet name="vehicle_cap" sheetId="15" r:id="rId13"/>
+    <sheet name="cost_factors" sheetId="16" r:id="rId14"/>
+    <sheet name="CO2_fee" sheetId="25" r:id="rId15"/>
+    <sheet name="assumptions" sheetId="12" r:id="rId16"/>
+    <sheet name="Sources costs" sheetId="21" r:id="rId17"/>
+    <sheet name="Sources emissions" sheetId="22" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3355" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3358" uniqueCount="254">
   <si>
     <t>Mode</t>
   </si>
@@ -840,6 +831,15 @@
   <si>
     <t>Product class</t>
   </si>
+  <si>
+    <t>Time period</t>
+  </si>
+  <si>
+    <t>Emission cap</t>
+  </si>
+  <si>
+    <t>'emission cap'</t>
+  </si>
 </sst>
 </file>
 
@@ -1195,7 +1195,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1353,7 +1353,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="750804304"/>
@@ -1415,7 +1415,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="750805384"/>
@@ -1456,7 +1456,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2361,10 +2361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55ED1A2-26F7-4BE8-B03B-AC0D518020AD}">
-  <dimension ref="B1:C16"/>
+  <dimension ref="B1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2454,6 +2454,11 @@
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="36" t="s">
         <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="36" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2473,6 +2478,7 @@
     <hyperlink ref="B14" location="assumptions!A1" display="assumptions" xr:uid="{B6E585B8-9E98-4662-897D-CD0E8A1C362D}"/>
     <hyperlink ref="B15" location="'Sources costs'!A1" display=" 'sources costs'" xr:uid="{F51D5ECD-C5D0-40EA-9688-2EC4076EA13A}"/>
     <hyperlink ref="B16" location="'Sources emissions'!A1" display=" 'sources emissions'" xr:uid="{F588768E-EB75-412F-8F3C-75163592EA54}"/>
+    <hyperlink ref="B17" location="emission_cap!A1" display="emission cap" xr:uid="{C61BB814-44A6-47FE-B17D-0C35CE9A4F98}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2480,10 +2486,44 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C003461F-E7F2-4532-B47B-B811710E9E75}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="B2" s="33">
+        <v>44650</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4663A21-150A-4914-BC6D-954E6813A5C4}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2675,7 +2715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9569D7EE-B770-468F-B61A-E0DB82253C9A}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -2723,7 +2763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61F1785-A9D2-43D6-AF64-887423AF0701}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -2894,7 +2934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87DB01C-C28B-4466-B068-FD0A64E87CCA}">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -3496,7 +3536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A26ADBE-5182-4739-A39F-809BE890F4A3}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3600,7 +3640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BE84BF-E76A-402B-AF31-6F26AF2044C4}">
   <dimension ref="A1:A23"/>
   <sheetViews>
@@ -3704,7 +3744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96CB461-6F71-44E3-A168-71729D7C3877}">
   <dimension ref="A1:C49"/>
   <sheetViews>
@@ -3943,13 +3983,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD9D518-1F19-4A80-A28B-711CA74E3278}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4077,6 +4115,72 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97437095-81E7-45B9-ABA9-E41AE588B4B0}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2023</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2028</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2034</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2040</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2050</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA46F70C-1634-4B80-BD59-B77731E4E671}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R631"/>
@@ -30810,7 +30914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EE6192-3357-4DF0-8055-1C716AB42B8C}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -31068,7 +31172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D42CA7-36D4-4300-B367-C77E8D5E25CA}">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -31383,7 +31487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B08A794-8873-43D6-A027-1749091B636F}">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -31712,7 +31816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA07C27-4DA3-4DC0-BE20-62D49702D364}">
   <dimension ref="A1:AC58"/>
   <sheetViews>
@@ -34905,7 +35009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CDBB70-C564-430C-8368-0301BECC4495}">
   <dimension ref="A1:R25"/>
   <sheetViews>
@@ -35541,7 +35645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DA41B5-4555-4ECC-9A08-B1A926FD14EC}">
   <dimension ref="A1:AB31"/>
   <sheetViews>
@@ -36432,36 +36536,310 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C003461F-E7F2-4532-B47B-B811710E9E75}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="B2" s="33">
-        <v>44650</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085DB58C8134B304E8722528DF46508C9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="10c9ea4b582f0eb0d34e8ba70fbb42b4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d2ad661-40b4-4211-810e-9f8311f21e61" xmlns:ns4="e3bebc04-41cd-4c9b-8948-0bf19cce4780" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="83eaf3ff065b0683f59096ddb0a0e8f5" ns3:_="" ns4:_="">
+    <xsd:import namespace="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
+    <xsd:import namespace="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1d2ad661-40b4-4211-810e-9f8311f21e61" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="MediaServiceAutoTags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="12" nillable="true" ma:displayName="MediaServiceLocation" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="22" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="24" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e3bebc04-41cd-4c9b-8948-0bf19cce4780" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="20" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1d2ad661-40b4-4211-810e-9f8311f21e61" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF43B81A-9B77-40AA-B2A6-0DDDF9B1E2D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
+    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4C98214-ABF0-4AFA-BEC4-8614495C7FA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31807262-4645-41A3-8742-9F86DB55C15F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>